--- a/deuChatbot/research_result/version_1(2500_100).xlsx
+++ b/deuChatbot/research_result/version_1(2500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13625,6 +13625,7218 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 구성 요소와 세부사항을 올바르게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 모든 중요한 요소를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어져 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.887864424792817</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 디자인조형학과는 시각디자인, 산업디자인, 공예디자인 세 가지 분야로 나뉩니다.
+2. **실기종목**: 
+   - 시각디자인
+   - 산업디자인
+   - 공예디자인
+3. **종목별 배점(비율)**:
+   - 기초디자인, 사고의 전환: 700점 (70%)
+4. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+5. **실기주제**: 
+   - 주제A와 주제B를 각각 하나씩 선택하여 연결된 주제로 작업합니다.
+   - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+6. **화지크기**: 켄트지 3절
+7. **시험시간**: 5시간
+8. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 정보를 바탕으로 디자인조형학과의 실기시험 준비를 체계적으로 진행할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 세부 사항에 직접적으로 관련되어 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8434825381087977</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환' 두 가지입니다. 각각의 세부사항은 다음과 같습니다:
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이 정보는 디자인조형학과의 실기고사에서 지원자가 준비해야 할 기본 사항을 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있으며, 매우 적절합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9706588423050692</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 내용 및 추첨 방식에 대한 설명이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 기초디자인 실기시험의 주제와 추첨 방식에 대해 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 주제와 추첨 방식이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.8004518989473455</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B: 
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일에는 이 중에서 각각 1개를 추첨하여 연결된 주제로 사용하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 표의 내용이 실제로 존재하는지 확인할 수 없으므로, 완전한 정확성은 보장되지 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 반영되지 않는다는 주장을 유지하고 있습니다. 그러나 표의 내용이 원본 텍스트와 직접적으로 연결되지 않기 때문에 약간의 일관성 문제를 느낄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 출결 점수의 반영 여부에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 표의 추가로 인해 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 표의 내용이 실제로 어떻게 반영되는지에 대한 정보는 확인할 수 없으므로 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 주제에 대한 정보가 풍부합니다. 그러나 일부 세부 사항에서 완전한 정확성이 결여되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 표의 내용이 추가됨으로써 약간의 의미의 흐름이 변할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 표의 추가로 인해 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.7015883142101331</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도 동안, 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 
+이를 확인할 수 있는 표는 "전형요소 반영비율" 표에서 볼 수 있습니다. 해당 표에 따르면:
+- 학생부교과(농어촌학생전형)의 경우: { 100 /  0 /  0 /  0 /  0 /  0 / }
+- 학생부교과(평생학습자전형): { 0 /  0 /  70 /  30 /  0 /  0 / }
+- 학생부교과(성인학습자(정원내)전형): { 0 /  0 /  70 /  30 /  0 /  0 / }
+출결 항목이 모두 0%로 표기되어 있어, 출결 점수가 반영되지 않는 것을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 17명을 명확히 언급하고 있습니다. 추가적으로 표에서 정보를 얻었다고 설명하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 일관되게 전달되고 있습니다. 따라서 일관성 점수는 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 내용을 직접적으로 다루고 있으며, 모집 인원에 대한 정보와 관련된 내용을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 최고입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.8229488922847084</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 단과대학 / 계열 / 모집단위 / 모집인원 ```
+[표 내용]
+```
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+```
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원본 텍스트의 주요 사실을 반영하고 있습니다. 그러나 "교직"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, "교직"이라는 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 이 정보가 포함되어 있지 않으므로 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원에 직접적으로 관련이 있으며, 관련 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "교직"이라는 단어가 문맥상 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "교직"이라는 추가 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원에 대한 정보는 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, "교직"이라는 추가 정보가 문맥에 맞지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "교직"이라는 단어가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.5830875833224672</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7634566184213831</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형으로 22명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으며, 추가적으로 점수의 의미에 대한 설명을 포함하고 있습니다. 그러나 "대략적인 평균 점수"라는 표현은 다소 모호할 수 있으며, 원문에서 명시된 점수의 정확성을 약간 저해할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 점수를 나열하고 있으며, 추가적인 설명도 원문과 관련이 있습니다. 다만, "대략적인 평균 점수"라는 표현이 원문과의 일관성을 약간 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 공백이 있어 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수와 그 의미를 잘 연결하고 있습니다. 그러나 "대략적인 평균 점수"라는 표현이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 점수는 정확하게 나열되어 있으나, "대략적인 평균 점수"라는 표현이 원문에서의 정확성을 약간 저해할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, "대략적인 평균 점수"라는 표현이 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 모호하여 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.8731774186647426</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+1등급: 139점  
+2등급: 131점  
+3등급: 123점  
+4등급: 115점  
+5등급: 107점  
+6등급: 99점  
+7등급: 91점  
+8등급: 83점  
+9등급: 75점  
+이 점수들은 각 등급별로 대략적인 평균 점수를 나타내며, 실제 수능 성적 발표 시에는 정확한 변환표준점수가 공고됩니다.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "일반고 또는 기타 고교를 졸업해야 한다"는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 예술고 학생의 지원 자격에 대해 설명하고 있습니다. 다만, 추가된 내용이 원문에 포함되지 않은 정보이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예술고 학생의 지원 자격에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "[표 추가내용]에 따르면:" 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 내용이 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 일반고 또는 기타 고교를 졸업해야 한다는 추가 정보는 원문에 명시되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 내용이 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.8091053851533445</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+[표 추가내용]에 따르면:
+"농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 농어촌학생전형으로 지원하기 위해서는 일반고 또는 기타 고교를 졸업해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 기록(218~221 cm)과 배점(275점)과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 레저스포츠학과 여자 제자리 멀리뛰기에 대한 정보를 제공하지만, 잘못된 수치로 인해 원본 텍스트와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 주제를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보는 원본 텍스트와 비교했을 때 매우 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8417792497795055</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급에서 레저스포츠학과 여자 제자리 멀리뛰기는 206~209cm의 기록을 가지고 있으며, 이에 대한 배점은 200점입니다.
+참조되는 표 내용은 다음과 같습니다:
+[표 내용]
+```
+4 / { 252～255 /  202~205 /  175 / } / { 15.60∼15.79 /  16.50~16.69 /  175 / } /
+```
+여기서 레저스포츠학과는 여자 제자리 멀리뛰기의 경우 202~205cm를 기록해야 하며, 이에 대한 배점은 175점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 데이터도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6954142931160189</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결이 차지하는 전형요소 반영비율은 12%입니다.
+참조할 수 있는 정보는 다음과 같습니다:
+[표 속성] 모집단위 / 전형요소 반영비율 {학생부교과 / 출결 / 서류 / 면접 / 실기 / 수능} 
+[표 내용]
+```
+경기지도학과 / { 18% /  12% /  70% /  0 /  0 /  0 / }
+```
+따라서 경기지도학과의 경우, 학생부교과가 18%, 출결이 12%, 서류가 70%를 차지하며 면접, 실기, 수능은 반영되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 가군에서 물리치료학과가 4명을 모집한다고 명시된 사실을 잘못 전달하고 있습니다. 응답에서는 2명을 모집한다고 잘못 언급하고 있으며, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 4명을 모집한다고 했지만, 응답에서는 2명이라고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 응답은 질문에 대한 정보를 제공하고 있으나, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 잘못된 정보로 인해 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본과의 불일치로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 응답이 부정확하고 일관성이 없으며, 신뢰할 수 없는 정보를 제공하므로 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 질문에 대한 답변을 시도하고 있으나, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7401018610226583</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2명을 모집합니다.
+이 정보는 아래 표에서 확인할 수 있습니다:
+[data]
+표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원
+[표 내용]
+```
+의료보건생활대학 / 자연과학 / 물리치료학과 / 4 /
+```
+물리치료학과는 가군 수능(일반학생전형)으로, 동의대학교에서 2024학년도에 이 학과를 4명 모집하지만, 질문은 "가군"에서 물리치료학과를 몇 명 모집하냐는 것이므로 정확한 답변은 2명입니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5549427327851056</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있으며, 추가적인 설명도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저 기준이 없다는 점을 명확히 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요구하는 정보에 직접적으로 관련이 있으며, 응용화학과의 수능 최저 기준에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 전반적으로 문장이 잘 구성되어 있으나, 약간의 어색한 표현이 있을 수 있습니다. 그러나 전반적으로 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 응답은 원문에서 제공된 정보와 일치하며, 사실적으로 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 응답이 우수하게 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4883587529159662</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 응용화학과의 정확한 수능 최저기준을 확인할 수 없습니다. 
+주어진 데이터에서 응용화학과에 대한 명시적인 수능 최저기준은 언급되어 있지 않습니다. 대신, "수능 위주" 전형 유형 중 응용화학과가 포함된 모집단위의 수능최저기준이 없음을 알 수 있습니다.
+[표 내용] 부분에서 다음과 같이 언급되어 있습니다:
+```
+공과대학 / 환경공학과, 화학공학과, 응용화학과 / 101 / 122 / 1.21 / 21 / { 276.61 /  19.76 / } / { 4.70 /  1.00 / } / { 5.59 /  0.51 / } / { 385.99 /  23.23 / } /
+```
+이 부분은 응용화학과의 수능 성적 분포를 보여주지만, 최저기준을 명시적으로 제시하고 있지 않습니다.
+수능 최저기준에 대한 자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과들은 포함되지 않았고, 새로운 학과들 또한 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과들에 대한 정보를 제공하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 사실과 다르기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관되지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제에 대한 언급은 있지만, 제공된 정보가 사실과 다르기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7139714606915166</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같은 것들이 있습니다:
+1. 미래형자동차학과 (공과대학)
+2. 스마트호스피탈리티학과 (상경대학)
+3. 부동산자산경역학부 - (부동산투자학, 부동산개발경영학) (의료·보건·생활대학)
+4. 라이프융합학부 - 신설 - (스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) (미래융합대학)
+위와 같은 학과들이 2024년에 신설되었다는 정보가 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8534099171552547</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 학생부종합(성인학습자(정원내·외)전형) 모두 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 기술하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학이 언급되었으나, 생성된 응답에서는 한의예과만을 언급하고 있습니다. 이는 사실과 다르며, 가산점 적용에 대한 정보도 원문과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서 언급된 모집단위와는 다른 내용을 제공하고 있으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원문에서 언급된 모집단위와 관련이 없기 때문에 관련성이 떨어집니다. 그러나 가산점에 대한 정보는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 한의예과에 대한 정보가 추가되면서 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원문과의 맥락이 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.6119985507203285</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+관련 정보는 다음과 같습니다:
+- "한의예과 수학(미적분/기하) 응시자 / 국어(화법과작문 또는 언어와매체) 25% +수학 (미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /"
+- "한의예과 수학(확률과통계) 응시자 / 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /"
+따라서, 한의예과에서 수학을 미적분이나 기하로 응시한 경우에만 수능 가산점이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 가군 수능 성적 반영에 대한 정보를 제공하고 있지만, 실기고사가 있는 학과에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있으며, 실기 성적에 대한 언급이 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있습니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답에서는 일부 학과에서 수능 성적을 70%, 실기 성적을 30%로 반영한다고 언급하고 있습니다. 이는 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 성적 반영 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 수능 성적 100% 반영에 대한 정보가 왜곡되어 있으므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있어 정확성 점수가 낮습니다. 특히 실기 성적 반영에 대한 정보는 원본에 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7251383959827788</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 모든 모집단위에 대해 수능 성적이 100% 반영됩니다.
+- 실기고사가 있는 레저스포츠학과와 태권도학과는 수능 성적을 70%, 실기 성적을 30%로 반영합니다.
+따라서, 가군의 일반학생전형에서는 수능 성적이 주요 평가 요소이며, 일부 학과에서는 실기 성적도 함께 고려됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜와 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(대기실 및 입실시간 안내)도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 실기고사 날짜와 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7563355963684278</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정되어 있습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**입니다.
+이 날짜에 대기실 및 입실시간 안내를 받으실 수 있으니 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 원문 내용을 무시하고 레저스포츠학과와 태권도학과에 대한 잘못된 정보를 제공합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있으며, 원문에서 언급된 학과들이 제외된다는 사실과 일치하지 않습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 특정 학과에 대한 정보를 제공하지만, 원문에서 요구하는 질문과는 관련이 없습니다. 원문에서 제외된 학과에 대한 정보가 아닌 다른 학과에 대한 정보를 제공하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 특정 학과에 대한 정보를 제공하지만, 원문과의 맥락에서 적절하지 않습니다. 원문에서 요구하는 정보와는 다르기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.6312169467489112</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 실기/실적 전형으로 분류되어 있습니다. 따라서, 이 두 학과는 일반학생전형으로 지원할 수 없습니다.
+즉, 나군 수능(일반학생전형)에서는 레저스포츠학과와 태권도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다."라고 명시하고 있습니다. 그러나 원본 텍스트에서는 "수능 최저기준이 적용되지 않습니다."라고 명확히 언급하고 있어, 생성된 응답은 사실과 완전히 반대되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트가 수능 최저기준이 적용되지 않는다고 명시한 반면, 생성된 응답은 적용된다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 다군 전형과 관련된 수능 성적의 중요성에 대해 상세히 설명하고 있으며, 원본 텍스트의 주제와 관련이 깊습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 심각한 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 요소가 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7382428154328353</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 
+특히, 다군 수능(일반학생전형) 모집단위 및 모집인원 표에서 볼 수 있듯이, 다군의 경우 모든 모집단위에 대해 수능 성적이 반영되며, 동점자 처리 기준에서도 수능 점수를 기준으로 처리됩니다.
+또한, 수능 전형성적 산출방법 표에서는 다음과 같이 명시되어 있습니다:
+- 다군(일반학생전형) / 인문사회과학대학, 상경대학 모집단위: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+- 다군(일반학생전형) / 공과대학, ICT융합공과대학 모집단위: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+따라서, 다군 전형에서도 수능 성적이 중요한 평가 요소로 활용되며, 최저기준을 충족해야 합격이 가능합니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 전화 문의를 해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8155548680448949</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부(부동산투자학, 부동산개발경영학) → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 정보는 제공된 표에서 추출한 내용이며, 동의대학교 웹사이트나 공식 안내서를 확인하시면 최신 정보와 자세한 내용을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 유의사항도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7859046158272303</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다.
+추가 유의사항:
+- 이 시간 이후 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대 2024학년도 전형 요소 변화에 대한 정보가 아닌, 실기고사 일정과 동점자 처리 기준에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트의 주요 내용과 일치하지 않으며, 전형 요소 변화에 대한 구체적인 정보를 제공하지 않기 때문에 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 전형 요소의 변화에 대한 구체적인 내용을 다루고 있지만, 생성된 응답은 다른 전형의 변경 사항을 언급하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련성이 낮습니다. 원본 텍스트는 전형 요소의 변화에 대한 정보를 제공하는 반면, 생성된 응답은 특정 전형의 실기고사 일정과 동점자 처리 기준에 대한 내용을 다루고 있어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성과 관련성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 전형의 변경 사항을 나열하고 있으나, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 그러나 각 항목이 명확하게 구분되어 있어 어느 정도의 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 전형 요소 변화에 대한 구체적인 내용이 누락되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성에서 낮은 점수를 받았으며, 이는 전체적인 품질을 저하시킵니다. 유창성과 일관성은 어느 정도 유지되지만, 주제와의 관련성이 부족하여 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 주제와는 다소 동떨어진 내용이 포함되어 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있어 이해 가능성은 높습니다. 그러나 내용의 일관성과 관련성이 부족하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7497859356285334</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **실기/실적 위주 전형 (가군, 나군)**
+   - **변경 사항**: 
+     - 실기고사 레저스포츠학과와 태권도학과의 경우, 실기고사 일정이 변경되었습니다.
+       - 레저스포츠학과: 2024. 01. 16.(화)
+       - 태권도학과: 2024. 01. 16.(화)
+   - **추가 정보**: 
+     - 실기고사 당일 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+2. **학생부교과 (나군)**
+   - **변경 사항**: 
+     - 동점자 처리 기준이 변경되었습니다.
+       - 순위 1: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+       - 순위 2: 영어교과 전 과목 등급 평균 상위자
+       - 순위 3: 국어교과 전 과목 등급 평균 상위자
+   - **추가 정보**: 
+     - 진로선택과목의 경우 성취도에 따른 등급(A : 1등급, B : 3등급, C : 5등급)으로 적용됩니다.
+     - 동점자 처리기준별 등급 평균 산출 불가 시 9등급으로 적용하며, 등급 평균 산출 시 소수점 셋째 자리에서 절사 처리합니다.
+3. **학생부종합 (나군)**
+   - **변경 사항**: 
+     - 동점자 처리 기준이 변경되었습니다.
+       - 순위 1: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+       - 순위 2: 영어교과 전 과목 등급 평균 상위자
+       - 순위 3: 국어교과 전 과목 등급 평균 상위자
+   - **추가 정보**: 
+     - 진로선택과목의 경우 성취도에 따른 등급(A : 1등급, B : 3등급, C : 5등급)으로 적용됩니다.
+     - 동점자 처리기준별 등급 평균 산출 불가 시 9등급으로 적용하며, 등급 평균 산출 시 소수점 셋째 자리에서 절사 처리합니다.
+이러한 변경 사항들은 각 전형의 서류평가 및 실기고사 일정에 영향을 미칠 수 있으므로 지원자들은 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공되지만, 원본의 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7789767787201348</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형) 모집단위에서는 실기가 차지하는 비중은 70%입니다.
+이 정보는 다음과 같은 표에서 얻을 수 있습니다:
+[가군 실기/실적(일반학생전형) 전형요소 반영비율]
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }
+```
+따라서 가군 실기/실적 전형에서 실기는 총 점수의 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "아직 모집은 이루어지지 않았으며"라는 부분은 확인이 필요합니다. 모집 여부에 대한 정보가 원문에 포함되어 있지 않기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 세부 전공을 나열하고 있으며, 추가적인 설명도 원문과 관련이 있습니다. 그러나 모집에 대한 언급이 원문에 없기 때문에 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보에 직접적으로 관련이 있으며, 세부 전공에 대한 설명과 추가 정보가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 세부 전공에 대한 설명이 자연스럽게 이어집니다. 그러나 모집에 대한 언급이 원문과 다르게 추가되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 세부 전공에 대한 정보는 정확하지만, 모집 여부에 대한 언급은 원문에 포함되어 있지 않아 정확성에 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받았습니다. 그러나 모집에 대한 정보가 원문에 없기 때문에 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 추가적인 설명도 적절합니다. 그러나 모집에 대한 언급이 원문에 없기 때문에 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8429881975918757</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이러한 세부 전공들은 학생들이 다양한 삶의 질 향상과 관련된 분야에서 전문성을 갖출 수 있도록 설계되었습니다.
+참고로, 이 라이프융합학부는 신설되었지만 아직 모집은 이루어지지 않았으며, 2024학년도에 처음으로 모집을 시작하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 따라서 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '태권도학과'라는 학과가 언급되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 전반적으로 의미는 전달되지만, 잘못된 정보가 포함되어 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7571479550704415</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 일반적으로 수능 성적을 기준으로 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 대한 정보를 제공하지만, 학과를 군별로 나누어 설명하는 부분에서 원본 텍스트와의 차이가 있습니다. 원본 텍스트는 단순히 학과 목록을 나열하고 있지만, 생성된 응답은 군별로 분류하여 추가적인 정보를 제공하고 있습니다. 이로 인해 일부 정보는 정확하지만, 원본 텍스트의 간결함과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 기반으로 하고 있지만, 군별로 나누어 설명함으로써 원본 텍스트와의 일관성이 떨어집니다. 원본 텍스트는 단순한 목록을 제공하는 반면, 생성된 응답은 추가적인 분류를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기/실적 위주 전형에 지원 가능한 학과에 대한 정보를 명확하게 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 군별로 나누어 설명하는 부분에서 약간의 복잡함이 있어 완전한 유창성에는 다소 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과를 군별로 나누어 설명하는 방식이 일관성을 유지하고 있습니다. 그러나 원본 텍스트의 간결함과는 다소 차이가 있어 완전한 일관성에는 미치지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 군별로 나누어 설명하는 부분에서 정확성이 떨어질 수 있습니다. 원본 텍스트의 단순한 목록과는 다르게 추가적인 정보가 포함되어 있어 정확성에 대한 평가가 다소 복잡합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받을 수 있습니다. 그러나 사실성과 정확성에서 다소 부족함이 있어 완전한 점수를 주기에는 어려움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 실기/실적 위주 전형에 대한 정보를 적절하게 전달하고 있습니다. 다만, 군별로 나누어 설명하는 방식이 원본 텍스트의 간결함과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 군별로 나누어 설명하는 부분에서 약간의 복잡함이 있어 완전한 이해 가능성에는 다소 미치지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6616805056092039</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "실기/실적(일반학생전형)"은 다음과 같은 학과에 해당합니다:
+1. 가군 (General Group):
+   - 레저스포츠학과
+   - 태권도학과
+2. 나군 (National Group):
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 체육학과
+3. 다군 (Diverse Group):
+   - 경기지도학과 (신설)
+따라서 실기/실적 위주 전형을 지원하려면 위의 학과 중 하나를 선택해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다. 추가된 정보인 "2024학년도"와 "미래융합대학"은 사실과 일치하며, 전공에 대한 설명도 원본의 내용을 잘 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 학부의 성격에 대한 설명이 서로 충돌하지 않습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 관련성이 매우 높습니다. 전공에 대한 정보가 명확하게 제시되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉬운 방식으로 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 전공 목록과 학부에 대한 설명이 모두 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8234438879731827</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 학부는 이 세 가지 전공 분야를 중심으로 학생들을 교육하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있으며, 전반적으로 정확한 정보가 부족하다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많으며, 특히 농어촌학생전형에 대한 언급이 없어서 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 일부 정보를 제공하지만, 원본 텍스트의 핵심 내용과 관련된 정보가 부족하여 관련성이 낮다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없다. 그러나 한국어 질문에 대한 중국어 응답은 다소 어색할 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 정확성이 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 여러 차원에서 낮은 점수를 받았으며, 정보의 정확성과 일관성이 부족하다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문에 대한 의미를 전달하고 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있지만, 한국어 질문에 대한 중국어 응답은 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5273750430255697</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？你在询问关于 Dongui University (동의대학교) 普通学部 (일반학생전형) 的申请资格问题。根据提供的信息，以下是关于特殊教育高中（특수목적고등학교）学生的申请资格：
+- 가군 (가) 일반학생전형: 特殊教育高中学生可以申请。
+- 가군 (나) 실기/실적 전형: 特殊教育高中学生可以申请。
+- 나군 (가) 수능 전형: 特殊教育高中学生可以申请。
+- 나군 (나) 실기/실적 전型: 特殊教育高中学生可以申请。
+所以，你作为特殊教育高中的学生是可以申请 Dongui University 的普通学部的。但是具体还需要查看该大学当年发布的招生简章和相关规定以获取最准确的信息。建议直接访问 Dongui University 的官方网站或联系其招生办公室确认最新的申请资格要求。</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집되는 학과라고 명시되어 있지만, 생성된 응답에서는 다른 학과들이 언급되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 그러나 일부 내용은 의미적으로 적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6646673993254181</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 표 "나군 학생부종합(조기취업형계약학과전형) - 정원외 모집단위 및 모집인원"을 살펴보겠습니다.
+이 표는 다음과 같이 보입니다:
+```
+상경대학 / 인문사회 / 스마트호스피탈리티학과 / 7 /
+IT융합부품소재공과대학 / 공학 / 미래형자동차학과 / 7 /
+ICT공과대학 / 공학 / 소프트웨어융합학과 / 7 /
+```
+이 표에서 각 학과의 모집인원은 모두 7명입니다. 따라서, 2024학년도 동의대학교 나군 전형에서는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과가 가장 많이 모집되는 학과로 보입니다.
+따라서, 정확한 답변은 "나군 전형에서 가장 많이 모집하는 학과는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과" 입니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 농어촌학생전형에 지원할 수 없다는 사실을 언급하고 있지만, "特撮高中"이라는 표현은 부정확하며, "고교유형별 지원자격" 부분에 대한 언급이 원문과 일치하지 않습니다. 또한, 마이스터고에 대한 언급이 불명확하여 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있으며, 특히 "特撮高中"이라는 표현이 원문에서 언급된 "특수목적고등학교"와 일치하지 않습니다. 또한, 지원 자격에 대한 설명이 원문과 다르게 해석되고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있지만, 원문에서 제공된 구체적인 정보와 세부 사항을 충분히 반영하지 못하고 있습니다. 질문에 대한 직접적인 답변은 포함되어 있으나, 원문과의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원문에서 제시된 정보와의 연관성이 떨어져서 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다르게 해석되고 있으며, 특히 "特撮高中"이라는 표현은 부정확합니다. 원문에서 명시된 지원 자격에 대한 정보가 정확하게 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 있습니다. 전반적으로 원문과의 연관성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 어느 정도 적절하지만, 원문과의 맥락이 일치하지 않아 의미 전달이 부족합니다. "特撮高中"이라는 표현은 원문과의 의미적 일치를 이루지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 한국어 사용자에게는 다소 어색할 수 있습니다. 그러나 내용 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.5486604642344223</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是韩国人吗？如果你是韩国学生，根据提供的信息，特撮高中（特殊目的高中）的学生是不能申请동의大学的農村学生类型学部招生的。具体来说，在"고교유형별 지원자격"部分中提到：
+- 特殊目的高中 { 과학고, 국제고, 외국어고 / 예술고, 체육고 / 마이스터고 } 是不允许申请的。
+所以如果你是特撮高中的学生，你不能通过學生部農村型招生途径申请동의大学。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 허위 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5801018792494448</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 표준점수: 317.87
+- 수학 표준점수: 317.87 
+- 영어 등급 점수: 3.77
+- 탐구 표준점수: 4.49
+따라서, 소프트웨어공학부 합격자들의 평균 성적은 다음과 같습니다:
+국어 + 수학 + 영어 + 탐구 = 317.87 + 317.87 + 3.77 + 4.49 = **643.00**
+표준 변환 점수 합의 평균은 434.70입니다.
+이 정보는 "나군 학생부종합(조기취업형계약학과전형) - 정원외 동점자 처리기준" 표에서 제공된 데이터를 기반으로 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있으며, 생성된 응답은 허위 정보를 제공하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5494962839441531</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자들의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 317.87 / 7.35 }
+따라서, 소프트웨어공학부 최초합격자들의 평균 성적은 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 완전히 반영하지 않고 있습니다. 예를 들어, 최초 합격자 발표 시간과 날짜가 명확하게 언급되지 않았고, 충원 합격자 발표에 대한 구체적인 시간도 누락되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가적인 정보가 포함되어 있어 일관성이 떨어집니다. 예를 들어, 전화 연락 두절에 대한 언급은 원본 텍스트에 없으며, 이는 혼란을 초래할 수 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 약간의 차이가 있습니다. 그러나 전반적으로 관련성이 높기 때문에 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨리므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 완전히 반영하지 않기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 다소 부족한 점이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 일부 추가 정보가 혼란을 초래할 수 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장이 복잡할 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.774940485983979</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 합격자 발표 일정은 다음과 같습니다:
+- 최초합격자는 홈페이지를 통해 실시되며, 지원자는 전형 일정에 명시된 합격자 발표일에 반드시 확인해야 합니다.
+- 1차 충원합격자와 2차 충원합격자의 발표도 홈페이지를 통해 이루어집니다.
+추가적으로:
+- 3차 이후 충원합격자 발표에서는 전화 연락 두절(3회 통화)으로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있으므로 주의해야 합니다.
+최종적으로 합격 여부는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 면접고사 일정과 관련된 정보를 완전히 잘못 전달하고 있습니다. 원본 텍스트는 특정 전형의 면접고사 일정이 2024년 1월 20일이라고 명시하고 있지만, 생성된 응답은 다른 날짜와 전형에 대한 정보를 제공하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 전형의 면접 일정에 대한 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충되는 정보가 포함되어 있어 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련된 정보가 전혀 없지는 않지만, 주제와 관련성이 낮습니다. 원본 텍스트의 핵심 정보인 면접고사 일정에 대한 언급이 없고, 다른 전형의 면접 일정에 대한 정보가 주를 이루고 있어 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 전형의 면접 일정에 대한 정보를 제공하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있습니다. 그러나 일부 정보는 의미적으로 적절할 수 있어 점수를 2로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 점수를 4로 평가합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.5269365729879345</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 &lt;가&gt;군 실기고사인 레저스포츠학과 태권도학과의 면접이 있습니다. 
+입실 시간 등 자세한 사항은 2024년 1월 12일(금)부터 입학안내 홈페이지에서 확인할 수 있습니다.
+다른 전형의 면접 일정은 다음과 같습니다:
+- &lt;나&gt;군 실기고사인 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 면접은 2024년 1월 17일(수)에 있습니다.
+- 이외의 전형의 면접 일정은 해당 전형의 특별한 안내가 있을 경우 입학안내 홈페이지에서 확인할 수 있습니다.
+면접을 보러 가기 전에 반드시 입학안내 홈페이지를 통해 최신 정보와 시간표를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 한의예과의 최저학력 기준이 없다는 원문과 상반된 내용을 담고 있습니다. 응답에서는 2024년도 최저학력 기준이 있다고 명시하고 있으며, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 최저학력 기준이 없다고 했지만, 응답에서는 구체적인 기준을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 원문과 관련된 내용을 다루고 있지만, 원문이 '최저학력 기준이 없다'는 점을 무시하고 새로운 정보를 제공하고 있어 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 구조적으로 일관되지만, 원문과의 내용적 불일치로 인해 전체적인 일관성이 떨어집니다. 주제가 원문과 다르기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원문에서 제시된 사실과 완전히 다릅니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 응답은 원문의 의미와 맥락을 완전히 무시하고 있으며, 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5384720737033033</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이는 일반고, 자율고, 특수목적고, 특성화고 등 다양한 유형의 고등학교 졸업자나 법령에 의해 인정된 동등 학력을 갖춘 지원자가 지원할 수 있다는 것을 의미합니다.
+추가적으로, 한의예과는 특정 과목에 대한 성적 기준이 있습니다:
+- 국어
+- 수학 (미적분 또는 기하)
+- 영어
+- 한국사
+- 사회(역사/도덕 포함)
+- 과학교과 전과목
+이러한 과목들 중에서 최소 8과목의 성적이 반영되며, 한의예과는 일부 과목에 대해 더 많은 과목을 반영할 수 있습니다.
+상세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 제공하고 있습니다. 모든 정보가 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다. 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 명확하게 다루고 있습니다. 모든 내용이 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 읽기 쉽고 이해하기 좋은 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다. 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 독자가 쉽게 이해할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5729688975159625</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 주요 대부분의 전형에서 수능 최저학력 기준을 적용하지 않습니다. 
+특히, 표에서 확인할 수 있는 내용에 따르면:
+- 가군 수능(일반학생전형) : 수능최저기준 없음
+- 나군 수능(일반학생전형) : 수능최저기준 없음 
+- 다군 수능(일반학생전형) : 수능최저기준 없음
+따라서, 주요 정시모집 전형에서는 수능 최저학력 기준이 적용되지 않습니다. 하지만 일부 특별한 전형이나 학과에서는 수능 최저점수를 요구할 수도 있으므로, 해당 대학의 공식 모집요강을 확인하는 것이 가장 정확합니다.
+만약 특정 전형이나 학과에서 수능 최저기준이 적용된다면, 그 내용은 해당 전형명 또는 모집단위 별로 나열되어 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정의 일부를 정확하게 반영하고 있지만, 1차 발표일인 2024년 2월 14일에 대한 언급이 없고, 2차 발표일과 3차 이후 발표일에 대한 정보가 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보를 제공하지만, 원본 텍스트의 모든 세부 사항과 일치하지 않습니다. 특히 1차 발표일이 누락되어 있어 일관성이 떨어집니다. 따라서 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지만, 1차 발표일이 누락되어 있어 완전한 정확성을 결여하고 있습니다. 따라서 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이지만, 일부 정보가 누락되어 있어 전반적으로 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항이 누락되어 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있지만, 일부 정보가 부족하여 완전한 이해를 방해할 수 있습니다. 따라서 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.6984172396384467</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자 발표가 이루어집니다.
+이 기간 동안 합격 여부를 확인해야 하며, 이메일이나 전화로 별도의 개별 통보는 없습니다. 홈페이지에서 개별적으로 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 사실을 정확하게 반영하고 있습니다. 그러나 "이후 추가합격자는 개별 전화 통보를 통해 발표된다"는 내용은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 추가합격자 발표 방식에 대한 언급이 원본에 없기 때문에 완전한 일관성은 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가합격자 발표 방식에 대한 언급이 원본과 다소 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보를 포함하고 있어 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가합격자 발표 방식에 대한 언급이 원본에 없기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.8535217963077049</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차까지의 충원 합격자 발표가 있습니다. 각각 다음과 같습니다:
+- 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+- 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+이후 추가합격자는 개별 전화 통보를 통해 발표되며, 시간은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+참고로, 모든 지원자는 합격자 발표일에 합격 여부를 확인해야 하며, 지정된 등록 기간 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집 여부가 명확히 결정되지 않았다고 언급하고 있지만, 원문에서는 2024년 1월 2일 이후 결원에 대해 추가 합격자를 선발한다고 명시하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 추가 모집이 있을 것이라고 명확히 언급하고 있지만, 생성된 응답은 그 여부가 불확실하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 추가 모집에 대한 정보를 제공하려고 하지만, 원문에서 언급된 구체적인 내용(결원에 따른 추가 합격자 선발)에 대한 직접적인 언급이 부족합니다. 따라서 관련성은 있지만, 원문에 대한 직접적인 답변은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원문과의 연결이 부족하여 완전한 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 추가 모집에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원문과의 관계가 약해 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락에서 벗어난 부분이 있어 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.5920885836199171</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024학년도 동안 추가 모집 여부는 아직 명확히 결정되지 않았습니다. 추가 모집이 있을 경우, 일반적으로 입학 홈페이지 (http://ipsi.deu.ac.kr)에서 공고가 날릴 것입니다. 따라서 최신 정보를 얻기 위해서는 해당 웹사이트를 주기적으로 확인하는 것이 좋습니다.
+추가로, 특정 전형이나 모집단위에 대한 자세한 내용은 각각의 전형별 세부 안내를 참조하시거나 입학처와 직접 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 여러 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 다르거나 누락되었습니다. 예를 들어, "만 30세 이상인 자"라는 조건은 원본에 명시되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어집니다. 예를 들어, 모집단위와 관련된 세부사항이 원본과 다르게 설명되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 평생학습자전형에 대한 정보를 잘 다루고 있으며, 원본 텍스트의 주요 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 부분에서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히, 연령 조건과 같은 세부사항이 추가되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되지만, 사실성과 일관성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.8128957186105045</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입학전형의 일종으로, 주로 성인 학습자를 대상으로 합니다. 이 전형의 특징과 관련 정보는 다음과 같습니다:
+1. 모집 대상:
+   - 고교 졸업(예정)자 또는 법령에 따른 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 지원자격 증빙서류:
+   - 고교 학교생활기록부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 합격증명서 및 성적증명서
+   - 외국고교 졸업(예정)자: 공증받은 졸업증명서, 성적증명서 등
+3. 서류제출 기간:
+   - 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지 도착분에 한함
+4. 제출 장소:
+   - (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+5. 전형요소 반영비율:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+6. 모집단위 및 인원:
+   - 미래융합대학 / 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) - 11명
+   - 기타 계열과 모집인원 등 자세한 내용은 공지된 표를 참조하세요.
+7. 동점자 처리기준:
+   - 서류평가 영역 성적 상위자 순으로 처리
+8. 전형요소:
+   - 학생부종합 평가 (공동체역량, 학업역량, 전공적합성)
+9. 지원자격 증빙서류 제출 시 주의사항:
+   - 2024년 1월 1일 이후 발급된 서류로 제출해야 함
+   - 온라인 제공 동의자에게는 학생부를 온라인으로 제공 받음
+이 정보는 일반적인 내용이며, 실제 전형 절차와 세부 사항은 대학 입학 홈페이지나 공지사항을 통해 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.9099194070043295</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 일정과 입실 시간에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다. 특히, 실기고사 일정이 원본 텍스트에 명시되지 않은 학과에 대한 정보가 포함되어 있어 사실성과 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 입실 시간에 대한 정보는 일치하지만, 추가된 학과별 실기고사 일정은 원본 텍스트와 일관성이 없습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 여러 정보를 제공하고 있어 원본 텍스트와 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 입실 시간 외에 불필요한 정보가 포함되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성 점수가 낮아졌습니다. 특히, 실기고사 일정에 대한 정보는 원본 텍스트에 명시되지 않은 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 정확성과 일관성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본 텍스트의 맥락과 완전히 일치하지 않기 때문에 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있어 완전한 이해 가능성은 아닙니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.5966550400333712</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 다음과 같은 과정을 거쳐야 합니다:
+1. **실기고사 일정 확인**: 
+   - 레저스포츠학과, 태권도학과의 경우 2024년 1월 16일(화)에 실시됩니다.
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다.
+2. **실기고사 당일 준비**:
+   - **입실 시간 안내**: 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 대기실 및 입실시간을 확인할 수 있습니다.
+   - **장비 준비**: 운동복과 운동화를 착용해야 합니다. 스파이크나 축구화 등 특수화는 불가하며, 신발바닥에 이물질 가칠 금지입니다.
+3. **실기고사 장소**:
+   - 실기고사는 각 학과별로 지정된 장소에서 진행됩니다.
+   - 정확한 장소는 입학안내 홈페이지를 통해 확인할 수 있습니다.
+4. **주의사항**:
+   - 부상이나 기타 사유로 인해 기권한 경우 해당 종목에 최저점수를 부여받습니다.
+   - 2회 반칙 시에도 최저점수를 부여받으므로 주의해야 합니다.
+따라서, 실기고사는 지정된 일자와 장소에서 준비하고 참가해야 하며, 관련 안내를 확인하여 철저히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 제공된 정보와 관련이 없는 내용이 포함되어 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사에 대한 준비 사항을 설명하고 있습니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 항목으로 나뉘어 있지만, 각 항목 간의 연결이 약간 부족합니다. 그러나 전체적으로는 이해할 수 있는 구조를 가지고 있습니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3700680913657529</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **장소**: 실기시험은 대회장이나 학교에서 진행됩니다.
+2. **운동복 및 운동화**: 운동복과 운동화를 착용해야 합니다. 스파이크나 축구화는 허용되지 않으며, 신발바닥에 이물질이 가칠 수 있으므로 금지입니다.
+3. **종목별 배점**:
+   - 제자리 멀리뛰기: 240점 (24%)
+   - 메디신볼 던지기: 243점 (23%)
+   - Z-런: 230점 (23%)
+4. **주의사항**:
+   - 부상이나 기타 사유로 인해 기권한 경우 해당 종목에 최저 점수를 부여받습니다.
+   - 각 실기종목에서 2회 반칙을 하면 최저 점수를 받게 됩니다.
+따라서 체육학과의 지원자는 위와 같이 준비하여 실기고사를 치르는 장소로 이동해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실을 잘 반영하고 있습니다. 그러나 전화 연락 두절에 대한 언급은 원문에 명시된 내용과는 다소 차이가 있어, 완전한 일치라고 보기는 어렵습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 전화 연락 두절에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명확히 언급하고 있으나, 생성된 응답은 전화 연락 두절에 대한 조건을 추가하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수시 충원합격자 발표에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 전화 연락 두절에 대한 언급이 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 전화 연락 두절에 대한 조건이 추가되어 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 전화 연락 두절에 대한 언급이 원문과의 의미적 일치를 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.7026820521451579</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+따라서 수시 충원합격자 발표 후에는 전화로 통보는 이루어지지 않으며, 지원자는 해당 기간 동안 전화를 받지 못하는 일이 없도록 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않다는 원문 내용을 무시하고, 2024학년도 모집에 대한 구체적인 정보를 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문은 2023학년도 수시모집 결과에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2024학년도에 대한 정보를 제공하며, 이는 원문과 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 있지만, 주제에서 벗어난 2024학년도에 대한 정보가 포함되어 있어 관련성이 떨어집니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문에서 요구하는 정보와의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 2023학년도에 대한 정보가 없다는 원문 내용을 무시하고, 2024학년도에 대한 구체적인 정보를 제공하고 있습니다. 이는 사실과 일치하지 않으며, 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원문과의 관계가 약해 다차원적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 2024학년도에 대한 정보가 포함되어 있어 의미적으로 적절하지 않습니다. 원문에서 요구하는 정보와의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7189763617598803</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 문서에서 직접적으로 확인할 수 없습니다. 하지만, 제공된 정보를 바탕으로 다음과 같은 점들을 추론할 수 있습니다:
+1. 2024학년도 모집에서는 경찰행정학과가 포함되어 있으며, 정원은 7명입니다.
+2. 2024학년도에는 4명의 합격자가 발표되었습니다.
+3. 이전 년도의 모집 결과와 직접적인 비교는 불가능하지만, 일반적으로 수시모집의 경우 각 대학이 매년 약간씩 변화를 겪을 수 있습니다.
+4. 경찰행정학과의 전형요소 반영비율은 학생부교과(출결포함) 30%와 서류 70%입니다.
+따라서, 정확한 2023학년도 경찰행정학과 수시모집 결과를 확인하려면 해당 대학의 공식 웹사이트나 입학처에 직접 문의하는 것이 가장 정확할 것입니다. 제공된 정보만으로는 2023학년도의 구체적인 합격자 명단이나 인원 등을 알 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 특정 전형에서 수능을 응시하지 않아도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실관계에 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 특정 전형에서 수능 없이 지원할 수 있다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 주제와는 다소 벗어난 정보도 포함되어 있습니다. 그러나 여전히 수능 응시 여부에 대한 질문에 대한 답변을 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 약해져서 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 수능 응시가 필수라는 점을 간과하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실관계와 일관성에서 큰 문제를 보이고 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문의 맥락과는 다소 어긋나는 내용이 포함되어 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원문과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4716265334742638</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 동안, 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 농어촌학생전형과 조기취업형계약학과전형 등에서 수능 없이 지원할 수 있는 기회가 있습니다.
+1. **나군 학생부교과(농어촌학생전형)**: 이 전형에서는 수능 점수를 요구하지 않습니다. 대신 농어촌 지역 출신 또는 거주 경력을 증명하는 서류 제출이 필요합니다.
+2. **나군 학생부종합(조기취업형계약학과전형)**: 이 전형에서도 수능 점수는 요구되지 않습니다. 대신 학생부 성적, 면접 결과 등을 종합적으로 평가합니다.
+따라서 특정 전형에서는 수능을 응시하지 않아도 지원이 가능하나, 일반적으로는 수능 점수가 필요하거나 참고사항으로 사용되는 경우가 많습니다. 각 전형별로 정확한 요구 사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문 내용을 일부 반영하고 있지만, "일반적으로 지원이 어려울 가능성이 높습니다"라는 문구는 원문과 상충되는 정보입니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 고등학교 졸업 후 10년이 지났을 경우 지원이 어려울 수 있다는 점에서 일관성이 떨어집니다. 원문은 졸업 시기와 관계없이 지원이 가능하다고 명시하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원 가능성에 대한 질문에 대해 매우 관련성이 높습니다. 다양한 유형의 고등학교 졸업자에 대한 정보와 지원 방법을 제공하고 있어 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원문과 상충하여 완전한 일관성을 제공하지 않으므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일부 일치하지만, 졸업 후 10년이 지났을 경우 지원이 어려울 수 있다는 주장은 원문과 상반되는 내용입니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 일부 문제점이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 일부 내용이 원문과 상충하여 의미 전달에 약간의 혼란을 줄 수 있습니다. 따라서 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다. 따라서 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6456795237319273</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 일반고 졸업자 외에 특성화고, 영재학교, 기타 학력인정고, 방송통신고, 각종학교, 검정고시 출신자 등 다양한 유형의 고등학교 졸업자가 지원 가능합니다. 하지만 2024년도 정시모집에서는 주로 일반고와 특성화고 졸업자를 대상으로 하며, 다른 유형의 학력 소지자는 특정 전형을 통해 지원할 수 있습니다.
+특히, 고등학교 졸업 후 10년이 지났다면, 정시모집에서는 일반적으로 지원이 어려울 가능성이 높습니다. 대신 평생학습자전형이나 성인학습자전형 등 특별전형을 통해 지원할 수 있는 기회가 있습니다.
+만약 특정 전형에 지원하고자 한다면, 해당 전형의 지원 자격과 제출 서류 등을 꼼꼼히 확인하시기 바랍니다. 또한, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하여 최신 정보와 상세한 안내를 받는 것이 좋습니다.
+참고로, 2024년도 동의대학교 정시모집에 대한 자세한 내용은 [입학 홈페이지](https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.7938789499410563</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+   - 입학안내 홈페이지에서 공고
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 서류 제출 대상 확인 필요
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후
+6. **합격자 발표 및 등록금 납부 (최초 합격자)**:
+   - **발표**: 2024년 2월 2일(금) 14:00
+   - **등록**: 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+7. **합격자 발표 및 등록금 납부 (충원 합격자)**:
+   - **1차 발표**: 2024년 2월 14일(수) 09:00
+   - **1차 등록**: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - **2차 발표**: 2024년 2월 15일(목) 09:00
+   - **2차 등록**: 2024년 2월 15일(목) 09:00 ~ 16:00
+8. **합격자 발표 및 등록금 납부 (3차 이후)**:
+   - **발표**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - **등록**: 개별 전화 통보 시 안내
+이 일정은 동의대학교 정시 모집의 주요 단계를 포함하며, 지원자는 이 일정을 참고하여 원서접수와 서류 제출 등을 체크해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으나, "서류제출 대상: 일부 모집단위에 따라 다르며, 전형별 세부 안내를 참조해야 합니다."라는 문장은 원본에 명시된 내용을 다소 모호하게 표현하고 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있으나, 일부 세부사항에서 약간의 차이가 있습니다. 예를 들어, "환불 신청 기간"은 원본에 포함되어 있지 않지만, 추가된 정보로서 일관성을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 잘 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 전반적으로 정확하지만, 서류 제출 대상에 대한 설명이 원본과 다소 다르게 표현되어 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서 전반적으로 좋은 품질을 보이고 있으나, 일부 세부사항에서의 부정확성과 일관성 문제로 인해 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.9002519210661514</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 서류제출 대상: 일부 모집단위에 따라 다르며, 전형별 세부 안내를 참조해야 합니다.
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 일시: 2024년 1월 16일 (화)
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과, 경기지도학과)**:
+   - 일시: 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+7. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수)
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 9:00 ~ 16:00
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목)
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 9:00 ~ 16:00
+   - 3차 이후 충원 합격자 발표 및 등록: 개별 전화 통보
+8. **환불 신청 기간**: 2024년 2월 14일 (수) ~ 2024년 2월 20일 (화) 12:00
+이 일정은 일반적인 일정이며, 일부 세부사항이나 변경 사항이 있을 수 있으므로 공식 홈페이지를 통해 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하고 있지만, 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원할 수 있는 전형을 나열하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 수능 미응시자는 지원이 불가능하다는 점이 핵심인데, 생성된 응답은 이를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 사실적 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않기 때문에 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 상반되는 내용을 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6711652612739668</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능을 미응시한 학생도 지원할 수 있는 전형은 다음과 같습니다:
+1. **학생부종합(성인학습자(정원내)전형)** - 이 전형에서는 수능이 필요하지 않습니다.
+2. **학생부종합(성인학습자(정원외)전형)** - 이 전형에서도 수능이 필요하지 않습니다.
+3. **학생부교과(평생학습자전형)** - 이 전형 역시 수능이 필요하지 않습니다.
+수능 미응시자를 대상으로 한 전형들은 주로 평생학습자나 성인 학습자들을 위한 특별전형으로, 일반적으로 수능 점수가 아닌 다른 요소들(학생부 성적 등)을 중점적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보가 잘못된 내용을 포함하고 있습니다. 원본 텍스트에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 전년도 충원 합격이 36명까지 이루어졌다고 했습니다. 그러나 생성된 응답은 2024년도 모집 정보를 언급하며 1차 충원 합격이 이루어졌다고 주장하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 충원 합격 차수에 대한 정보가 없다고 명시했지만, 생성된 응답은 1차 충원 합격이 이루어졌다고 언급하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 2024년도 모집 정보에 대한 언급이 원본 텍스트의 질문과 직접적으로 관련이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 2024년도 정보와 전년도 정보가 혼합되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본에서는 충원 합격 차수에 대한 정보가 없다고 했지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다. 관련성은 어느 정도 있지만, 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 어느 정도 적절하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 2024년도 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 혼합으로 인해 일부 독자에게는 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.6864558554839292</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024년도 모집 정보로 기준을 맞추면, 전자공학과의 충원 합격은 다음과 같이 나타나 있습니다:
+- 1차 충원합격 발표: 2024. 02. 14.(수) 09:00
+- 1차 충원합격 등록: 2024. 02. 14.(수) 09:00~16:00
+따라서, 전년도에 전자공학과의 충원 합격은 최소 1차까지 이루어졌습니다.
+만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 연락처를 잘못된 정보로 제공하고 있으며, 원본 텍스트의 정보와 상충합니다. 원본 텍스트의 연락처는 051-890-4379~89인데, 생성된 응답에서는 "(주)유웨이어플라이 : 1588-8988"이라는 잘못된 번호를 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본의 연락처와 생성된 응답의 연락처가 서로 다르며, 이는 정보의 일관성을 해칩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 입학처에 대한 정보를 제공하고 있지만, 잘못된 연락처를 포함하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 신뢰성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 신뢰할 수 없는 정보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학처에 대한 정보를 제공하려고 하지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.5410900488497573</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 연락처 번호는 "(주)유웨이어플라이 : 1588-8988"입니다. 
+하지만, 직접 동의대학교 입학처에 문의하시려면 아래 주소를 참조해주세요:
+(우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+또는 전화번호를 찾지 못한 경우, 제공된 정보에서 (주)유웨이어플라이에 연락하시거나 본교 홈페이지를 통해 추가 문의하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전화 연락이 두절될 경우 지원자가 등록 의사가 없는 것으로 간주된다는 점을 정확히 전달하고 있습니다. 그러나 일부 표현이 다르게 나타나고 있어 완전한 일치는 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 전화 연락이 두절될 경우의 처리 방식에 대한 설명이 일치하지만, 일부 표현의 차이로 인해 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 충원합격자에 대한 전화 통보와 관련된 모든 주요 사항을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 다소 복잡하여 읽기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 문장이 다소 길어져서 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 전화 연락이 두절될 경우의 처리 방식에 대한 설명이 정확합니다. 다만, 일부 표현에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 원본 텍스트와 잘 일치합니다. 그러나 약간의 표현 차이가 있어 완전한 일치는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다르게 나타나 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하여 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.5632366276136653</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자에게는 개별 전화통보方式进行回答：
+如果在三次补充录取通知后，电话联系不到候选人，则会被视为放弃录取资格。因此，候选人需要确保在此期间保持通讯畅通，并及时接听电话。如果有任何问题或无法接电话的情况，应立即与学校招生办公室联系确认自己的录取状态，以避免被误认为放弃录取机会。</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 모순되지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 모든 정보를 적절히 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되어 있으며, 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.908581767146735</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 지원 자격에 따른 제출서류는 다음과 같습니다:
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**추가로 부모가 사망한 경우:**
+- 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)
+**또는 추가로 부모가 이혼한 경우:**
+- 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부
+- 본인의 기본증명서(상세) 1부
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**주의사항:**
+- 제출기간은 2024년 1월 3일(수)부터 1월 12일(금)까지 도착분에 한함.
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀.
+- 제출서류 미제출자는 불합격 처리됩니다.
+- 주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 합니다.
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출하시기 바랍니다.
+- 최종 등록자 중 고교 졸업예정자는 졸업 후 지원 자격 증빙서류를 2024년 2월 16일(금)까지 추가로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 추가로 제출해야 할 서류와 관련된 정보도 포함되어 있습니다. 그러나 제출 기간과 장소에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분은 원본과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 추가된 정보(제출 기간 및 장소 등)가 원본 텍스트에 포함되어 있지 않기 때문에 일관성이 떨어집니다. 원본 텍스트와의 일관성을 유지하기 위해서는 이러한 추가 정보가 필요하지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 제출해야 할 서류에 대한 정보를 명확하게 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨리므로 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않기 때문에 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 원본 텍스트와의 일관성 및 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.7570581856235257</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정에서 농어촌학생전형으로 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 주의해야 할 점은:
+- 제출기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 서류 미제출자는 불합격 처리됨
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 함
+- 최종 등록자 중 고교 졸업예정자는 2024. 02. 16.(금)까지 추가 제출 필요
+위와 같이 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집 전형에 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있습니다. 대신, 저소득 가정 학생을 위한 특별 전형이 있을 수 있다고 언급하고 있어, 원문과 상충하는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 그와 반대되는 내용을 암시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 원문의 핵심 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원문과의 연결성이 떨어져 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원문과의 일관성, 정확성, 관련성에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문의 의미와 맥락에 부합하지 않으며, 원문에서 명확히 언급된 내용을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4814514950608345</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到是否在定期招生（정시모집）中进行低收入机会均等类型的录取。为了获取准确的信息，建议直接访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do），查看最新的招生简章或联系学校的招生办公室以获得详细说明。
+不过根据一般的高等教育趋势和政策，许多大学确实会在定期招生中设立针对低收入家庭学生的特殊录取计划。如果东国大学有类似的计划，通常会在其官方发布的招生信息中明确列出。因此建议直接查询学校官网获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5등급이 절사되어 3등급으로 처리된다고 잘못된 정보를 제공합니다. 원문에서는 절사 여부에 대한 정확한 정보를 확인하라고 명시하고 있으므로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5등급이 절사된다고 주장합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공된 정보와는 관련이 없습니다. 원문은 절사 여부에 대한 정보를 요청하고 있으나, 생성된 응답은 잘못된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 부분이 있습니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 원문과 일치하지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적 적절성이 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.6156701877150668</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되어 3등급으로 처리됩니다.
+수능 성적 산출 시 등급의 경우 소수점 이하는 절사합니다. 따라서 2.5등급은 3등급으로 반영됩니다.
+예를 들어:
+- 사탐 과목1: 2.5등급
+- 사탐 과목2: 3.0등급
+이 때 두 과목의 평균은 (2.5 + 3.0) / 2 = 2.75로 계산되지만, 소수점 이하는 절사되어 2.75 → 2.7 → 3등급으로 반영됩니다.
+따라서 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급은 3등급으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 충원 합격자 발표에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 충원 합격자 발표에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.692020456823036</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 정시 모집에서 충원 합격자는 최대 3차까지 발표됩니다.
+발표 일정은 다음과 같습니다:
+- 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+- 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+- 3차 이후 충원 합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화)까지
+따라서 정시 모집에서는 최대 3차까지의 충원 합격자 발표가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 성적이 4.6점일 경우의 추가 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용을 잘 반영하고 있습니다. 그러나 수능 최저 기준이나 모집인원에 대한 구체적인 정보가 부족하다는 점에서 완전한 정확성은 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되게 추가 합격 가능성에 대한 조건을 설명하고 있습니다. 다만, 원본 텍스트에서 언급된 평균 점수와 비교하는 부분이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 성적과 추가 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 조건이 명확하게 나열되어 있습니다. 그러나 일부 정보가 더 명확하게 연결될 수 있었던 점에서 약간의 개선 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 수능 성적에 대한 평가를 잘 반영하고 있습니다. 그러나 수능 최저 기준에 대한 구체적인 정보가 부족하여 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 문장에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 부분에서 더 간결하게 표현될 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5619739665951554</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 정보를 바탕으로 답변드리겠습니다.
+주어진 정보만으로는 정확히 e비즈니스학과의 수능 최저 점수나 모집인원 등 구체적인 전형 기준이 명시되어 있지 않습니다. 그러나 일반적으로 수능 성적이 4.6(등급)라면, 다음과 같은 절차와 요건을 충족해야 추가 합격 가능성이 있습니다:
+1. **모집인원 확인**: e비즈니스학과의 정시 모집인원이 여전히 남아 있는지 확인해야 합니다.
+2. **수능 최저 기준**: 해당 학과의 수능 최저 기준을 충족하고 있어야 합니다. 4.6 등급은 대체로 좋은 성적입니다, 하지만 최저 기준이 높다면 충분한 점수를 가져야 합니다.
+3. **전형 요소 평가**: 다른 전형요소(학생부, 면접 등)에서도 우수한 성적을 보여줘야 합니다.
+4. **동점자 처리기준**: 동점자 처리 기준에 따라 추가 합격 가능성이 있습니다.
+5. **모집인원 감축**: 이전 학생들의 포기나 환불로 인해 추가 모집이 가능한 경우도 있습니다.
+따라서, 정확한 답변을 위해서는:
+- e비즈니스학과의 2024년 정시 모집인원 확인
+- 해당 학과의 수능 최저 기준 확인
+- 동점자 처리기준 확인
+등을 확인해야 합니다. 이 정보들은 입학처 홈페이지나 대입 관련 공지사항에서 확인할 수 있습니다.
+추가로, 만약 위 정보를 확인하지 못한다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 공식 웹사이트를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 원본에서 제공된 정보와는 다른 내용을 포함하고 있습니다. 예를 들어, 영어 등급 평균과 수능 등급 평균에 대한 정보가 누락되었고, 다른 학과의 입학 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 서로 다른 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 다른 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 전체적으로 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 원본의 평균 등급과 관련된 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있으며, 주제와 관련된 정보가 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 중국어로 작성되어 있어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5336814334206239</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. e비즈니스学科2024年的招生人数和申请人数。
+2. e비즈尼斯学科的录取率（竞争比）。
+3. 考生的成绩分布情况。
+根据提供的表格数据：
+- e비즈尼斯学科2024年计划招生10人，实际申请人数为89人。
+- 竞争比是8.9:1。
+- 该学科的最终录取分数线（国语+数学+综合科目标准分总和）是438.60。
+考生的成绩为：
+- 国语 + 数学 + 综合科目 (含加分) 标准分总和：450.78
+- 英语等级平均值：2.88
+从这些数据来看，该考生的分数（国语+数学+综合科目标准分总和）高于最终录取分数线。因此，在其他条件相同的情况下，这位考生有可能被e비즈尼斯学科录取。
+但是，需要注意的是：
+1. 竞争比为8.9:1，说明竞争非常激烈。
+2. 考生的英语等级为2.88，低于平均值3.00。虽然不是决定性因素，但可能会影响最终录取结果。
+3. 该学科的具体录取标准可能会因其他因素（如面试、推荐信等）而有所不同。
+综上所述，在没有更多具体信息的情况下，这位考生被e비즈尼斯学科录取的可能性较大，但仍有一定的不确定性。建议考生关注学校后续发布的详细录取通知和要求。</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 전혀 반영하지 않고 있으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 추가 정보가 필요하다고만 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 그와 반대되는 정보를 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용인 예비 합격 가능성에 대한 정보가 전혀 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 주제와 관련이 없기 때문에 논리적인 일관성이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보나 오해를 불러일으킬 수 있는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 질문에 대한 적절한 의미 전달이 이루어지지 않았습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 많습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.318408868725669</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要更多的信息和具体的数据。但是根据您提供的信息，我无法直接判断是否能够预录取。以下是一些需要考虑的因素：
+1. **您的成绩**：请提供具体的考试分数（如国语、数学、英语等）以及它们的标准化转换值。
+2. **其他申请材料**：例如推荐信、个人陈述或面试表现等。
+3. **竞争情况**：了解该专业的录取分数线和往年的情况，这可以帮助判断您当前的成绩是否足够。
+4. **招生政策**：不同年份可能会有不同的录取标准和要求，请确认最新的招生简章中的具体信息。
+如果您能提供上述详细信息，我可以帮助进行更具体的分析。同时建议直接咨询学校或查看其官方网站上的最新公告以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 최저 학력 기준에 대한 정보를 포함하고 있으며, 3.44의 성적이 4등급에 해당한다는 점도 정확하게 언급하고 있습니다. 그러나 "최저 등급은 4등급"이라는 부분은 다소 모호하게 표현되어 있어, 실제로는 3.44가 4등급에 해당하는지에 대한 명확한 설명이 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 합격 가능성에 대한 논의가 원본의 내용과 잘 연결되어 있습니다. 다만, "최저 등급은 4등급"이라는 부분이 원본의 평균 등급과 다소 상충할 수 있는 여지가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 모든 정보가 주제와 관련되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적에 대한 분석도 적절합니다. 그러나 "최저 등급은 4등급"이라는 부분이 다소 애매하게 표현되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6477888232331042</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분한지 확정적으로 말하기는 어렵지만, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. 동의대학교 간호학과의 최저 학력 기준:
+   - 간호학과는 일반학생전형으로 모집합니다.
+   - 2023년도에 해당 과정의 최저 등급은 4등급이었습니다.
+2. 성적 분석:
+   - 3.44는 4등급을 의미합니다.
+   - 이는 최저 학력 기준보다 낮습니다.
+3. 기타 요인:
+   - 수능 영어 점수
+   - 탐구 과목 성적
+   - 실기고사 결과 (만약 필요하다면)
+   - 학생부 평가 등
+4. 추천:
+   - 동의대학교 간호학과에 지원하기 위해서는 최소 4등급 이상이 필요합니다.
+   - 현재 성적이 조금 낮은 편이라면, 다른 대학이나 전형을 고려해볼 만합니다.
+5. 참고 정보:
+   - 2023년도 동의대학교 간호학과 최종 등록자 중 가장 낮은 수능 점수는 4등급이었습니다.
+   - 하지만 이는 단일 요인만으로 결정되는 것이 아니므로, 총합격 가능성을 판단하기 위해서는 다양한 요소를 고려해야 합니다.
+결론적으로 현재 성적만으로는 간호학과에 합격할 확률이 낮다고 볼 수 있지만, 다른 평가 요소들이 좋은 결과를 가져올 경우에도 불가능은 아닙니다. 따라서 추가적인 정보와 전형을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하지만, 2.52라는 성적이 간호학과의 최종 합격 가능성에 대한 정확한 판단을 내리기에는 부족한 정보가 포함되어 있습니다. 또한, 수능 최저 합격 기준에 대한 정보는 2023년도 기준으로 제공되었으나, 2024년도 모집요강에 대한 정보는 명확하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 성적과의 일관성이 부족합니다. 원본 텍스트는 2.52의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 2.52가 여러 과목에서 기준에 미치지 못한다고 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 평균 성적과의 비교에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 다소 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저 합격 기준과 성적 평균에 대한 정보를 제공하지만, 이 정보가 원본 텍스트의 내용과 정확히 일치하지 않으며, 2.52의 성적에 대한 해석이 다소 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6339790814171863</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집요강을 참고하여 답변 드리겠습니다.
+간호학과는 일반학생전형으로 모집되며, 성적 기준은 다음과 같습니다:
+1. **수능 최저 합격 기준**:
+   - 2023년도 수능 최저 합격 기준은 국어: 98점, 수학(미적분/기하): 75점, 영어: 6등급, 탐구: 47점이었습니다.
+2. **전형별 성적 반영**:
+   - 일반학생전형에서는 국어, 수학, 영어, 탐구의 표준점수를 반영합니다.
+3. **성적 평균**:
+   - 2024년도 모집요강에서 간호학과는 국어: 104점, 수학(미적분): 108점, 영어: 4등급, 탐구: 59점으로 예상할 수 있습니다.
+이러한 기준을 고려하면:
+- **국어**: 2.52는 104점보다 낮습니다.
+- **수학(미적분)**: 2.52는 108점보다 낮습니다.
+- **영어**: 6등급은 4등급보다 높습니다.
+- **탐구**: 2.52는 59점보다 낮습니다.
+따라서, 현재 성적(2.52)으로는 간호학과의 최종 합격이 어렵다고 볼 수 있습니다. 하지만 정확한 가능성을 판단하기 위해서는:
+1. **최종 모집요강 확인**: 2024년도 최종 모집요강을 확인해야 합니다.
+2. **성적 변동 여부**: 성적이 향상될 가능성도 고려해야 합니다.
+3. **기타 평가 요소**: 학생부, 면접 등 기타 평가 요소를 고려해야 합니다.
+따라서, 현재의 성적만으로는 간호학과 최종 합격이 어렵다고 판단됩니다. 성적이 향상될 수 있는 방법을 찾아보시거나, 다른 전형이나 대학을 고려해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.7이라는 성적이 평균보다 낮다는 점을 언급하고 있습니다. 그러나 "합격 가능성이 낮다"는 주장은 다소 일반화된 것으로, 개별 대학의 전형에 따라 다를 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 입학 전형에 대한 다양한 요소를 설명하고 있지만, 원본 텍스트에서 제시된 평균 성적과의 일관성이 부족합니다. 특히, 3.7이라는 성적이 중간적인 점수라고 언급한 부분은 원본의 정보와 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 입학 전형과 관련된 다양한 요소를 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 입학 전형에 대한 정확한 정보를 제공하고 있으며, 3.7이라는 성적에 대한 평가도 적절합니다. 그러나 평균 성적과의 비교에서 다소 일반화된 주장을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5681930457931984</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 대체로 중간적인 점수일 수 있습니다. 간호학과의 경우, 각 대학마다 다른 입학전형과 기준이 있으므로 정확한 답변을 드리기 위해서는 다음과 같은 정보가 필요합니다:
+1. **대입 전형**: 간호학과는 일반적으로 다양한 전형으로 모집되며, 수능 성적 외에도 학생부 종합 평가, 면접 등이 포함될 수 있습니다.
+2. **모집인원 및 경쟁률**: 각 대학의 간호학과 모집인원과 지원자 수를 확인해야 합니다. 경쟁률이 높다면 3.7이라는 성적만으로는 합격하기 어렵습니다.
+3. **학교별 기준**: 일부 대학은 특정 전형에서 수능 점수보다 학생부 종합 평가가 더 중요할 수 있습니다. 따라서, 해당 대학의 정시 전형별로 어떤 요소가 중요한지 파악해야 합니다.
+4. **추천서 및 특기사항**: 일부 전형에서는 추천서나 특기사항 등이 추가적으로 고려될 수 있으므로 이 부분도 확인해 보세요.
+5. **면접 성적**: 면접은 간호학과에서 중요한 평가 요소로 작용할 수 있습니다. 좋은 면접 성적이 있다면 합격 가능성은 높아질 수 있습니다.
+6. **학생부 종합 평가**: 3.7이라는 성적 외에도 학생부에서 보여주는 실력과 성장 경향이 중요합니다. 특히 인성, 진로 적합성 등이 고려될 수 있습니다.
+따라서, 정확한 답변을 드리기 위해서는 해당 대학의 정시 전형별 기준과 모집인원 등을 확인하시고, 자신의 전체적인 지원 자질을 종합적으로 평가해 보시는 것이 좋습니다. 또한, 입학사정관이나 학교 관계자에게 상세히 문의하시는 것도 도움이 될 수 있습니다.
+추천되는 조치:
+- 해당 대학의 정시 모집요강을 꼼꼼히 확인합니다.
+- 전형별로 어떤 요소가 중요한지 파악합니다.
+- 면접 준비를 철저하게 합니다.
+- 학생부와 추천서 등을 최대한 강화합니다.
+이런 정보들을 종합적으로 고려하면, 3.7이라는 성적을 가지고도 간호학과에 합격할 수 있는 가능성은 열려 있습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 "정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적"이라는 주장을 반박하는 내용을 포함하고 있습니다. 이는 사실과 다르며, 원본 텍스트의 주장을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 2.58의 성적이 간호학과의 평균 등급보다 높다고 주장하지만, 생성된 응답은 이 성적이 상대적으로 낮다고 언급하고 있습니다. 이러한 상반된 정보는 일관성을 결여하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 모집 인원에 대한 정보를 제공하며, 질문에 대한 답변을 시도하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 성적에 대한 평가가 원본 텍스트와 상충하여 전체적인 일관성을 해치고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 성적에 대한 해석이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 주장을 왜곡하는 내용이 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란을 줄 수 있는 요소가 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.6685658848011126</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원과 지원 인원, 경쟁률을 확인해보겠습니다.
+간호학과의 경우 다음과 같은 정보가 있습니다:
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+이 경쟁률은 매우 높습니다. 평균적으로 7명 중 1명만 합격하는 수준입니다.
+당신의 성적(국어+수학+탐구2개: 2.58)을 고려할 때, 이는 표준 변환 점수에서 약 300점대 후반 정도를 의미합니다. 
+간호학과의 최종등록자 표에 따르면:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균**: 357.63
+- **영어 등급 평균**: 1.86
+- **수능 4개 영역 등급 평균**: 3.12
+이러한 정보를 바탕으로, 당신의 성적은 간호학과의 평균 점수와 비교해보면 상대적으로 낮습니다.
+따라서, 정시 전형으로 간호학과에 합격하기는 매우 어려울 것으로 예상됩니다. 경쟁률이 높고, 성적이 조금 부족한 편입니다.
+하지만, 최종합격 여부는 여러 요인에 따라 결정되므로, 다음과 같은 방법을 고려해볼 수 있습니다:
+1. **추가 지원**: 다른 학과나 전형으로 추가 지원을 해보는 것이 좋습니다.
+2. **재수 시도**: 성적이 조금 부족하다면 재수를 고려해볼 수도 있습니다.
+3. **특기사항 강조**: 면접이나 서류평가에서 특기사항 등을 잘 활용하여 경쟁력을 높이는 것도 방법입니다.
+결론적으로, 정시 전형으로 간호학과에 합격하기는 어렵지만, 다른 전략을 통해 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 경쟁 비율과 관련된 정보를 제공하며 예비 번호에 대한 명확한 결론을 제시하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 그와 반대되는 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 일부 관련 정보를 제공하지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 정보들을 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보(경쟁 비율 등)를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4934861525662919</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看相关录取信息。根据您提供的数据表，游戏学（게임공학과）的录取情况如下：
+- 招生人数：3人
+- 报名人数：16人
+- 竞争比：5.33
+从这些数字可以看出，竞争非常激烈。您的预估编号为7，这意味着您处于中等偏上的位置。
+然而，是否能被录取还取决于多种因素，包括但不限于：
+1. 您的具体分数和排名。
+2. 其他候选人的成绩。
+3. 学校的最终招生决策。
+建议您可以关注以下几点：
+- 保持与学校的沟通，了解最新的招生信息。
+- 准备好所有必要的申请材料，并确保按时提交。
+- 如果可能的话，参加学校组织的面试或其他选拔环节（如果有的话）。
+希望这些信息对您有所帮助。祝您好运！</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 정보와 관련된 여러 요소를 고려하고 있지만, 게임공학과의 수능 영어 등급 평균을 3.00으로 잘못 언급하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.25로 명시되어 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 영어 등급 평균에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 또한, 추가 합격 가능성에 대한 예측이 원본 텍스트의 불확실성과 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 여러 요소를 잘 다루고 있으며, 지원자의 수능 성적과 관련된 다양한 요인들을 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답에서 제공된 정보 중 일부는 정확하지만, 수능 영어 등급 평균에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 또한, 추가 합격 가능성에 대한 예측이 원본 텍스트의 불확실성과 다소 상충할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 잘못된 정보로 인해 의미 전달이 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.7074042813320658</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 영어 등급점수를 의미하는 것으로 보입니다. 동의대학교 게임공학과의 전형요소 중 수능 영역은 주요하게 반영되므로, 이 점수만으로 정확한 합격 확률을 예측하기는 어렵습니다.
+다음은 고려해야 할 몇 가지 요인들입니다:
+1. **전체 모집 인원과 지원자 수**: 게임공학과의 모집 인원과 실제 지원자의 수를 확인해야 합니다. 이 정보가 표에서 제공되지 않았으므로, 대략적인 경쟁률을 알 수 없습니다.
+2. **수능 성적 평균 및 분산**: 표에서 제공된 데이터로 보아, 게임공학과의 수능 영어 등급점수 평균은 3.00이고 표준 편차는 0.88입니다. 이 점수대에서는 상위권에 속하지만, 경쟁률이 높을 가능성이 있습니다.
+3. **전형 요소의 비중**: 게임공학과는 수능 위주 전형으로 보이며, 수능 성적이 주요하게 반영됩니다. 따라서 수능 점수가 좋은 경우 합격 가능성은 높아집니다.
+4. **추가 평가 요인**: 면접이나 서류평가 등 추가 평가 요인이 있다면, 이들에서도 우수한 성적을 보여야 합니다.
+5. **최종합격자 발표 및 동점자 처리 기준**: 최종 합격자 발표와 동점자 처리 기준도 중요합니다. 동점자가 발생할 경우, 수능 점수가 높은 순으로 선발됩니다.
+따라서, 4.16의 영어 등급점수로 게임공학과에 지원한다면 추가 합격을 받을 확률이 있지만, 정확한 숫자는 모릅니다. 경쟁률이 높다면 2~3번 정도의 추가 합격 가능성은 있을 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 채널을 통해 최신 정보와 지원 전략을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보가 잘못되었거나 누락되었습니다. 원본 텍스트에서 제공된 정보와 일치하지 않으며, 잘못된 데이터와 해석이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 특정 성적에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 다른 기준과 데이터를 사용하여 혼란을 초래하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 일부 관련 정보를 제공하지만, 원본 텍스트의 핵심 내용과는 거리가 있습니다. 경영정보학과의 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주제와 연결되지 않는 부분이 많습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 경영정보학과의 평균 성적에 대한 잘못된 해석이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있습니다. 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 혼란스러워서 명확하게 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5935371406732338</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看与经管信息学部（经营信息学部）相关的录取标准。根据提供的表格数据：
+1. **经管信息学部的招生人数和竞争情况**：
+   - 经营信息学部 ( 경영정보학과 ) 的招生计划为35人。
+   - 2024年共有69名考生申请该专业。
+2. **成绩分布**：
+   - 国语 + 数学 + 理科综合（含加分）标准分总和的平均值为311.13，标准差为15.22。
+   - 英语等级分数的平均值为3.82，标准差为0.88。
+3. **录取分数线**：
+   - 根据表格中的数据，经管信息学部（经营信息学部）的最低录取线是311.13分。
+4. **成绩要求**：
+   - 从提供的表格来看，最高分为453.83分。
+   - 最低分为264.18分。
+假设您提到的成绩为3.75是指英语等级分数的话，这在平均值之上但不是特别高。如果您的总成绩（包括国语、数学和理科综合）达到或超过311.13分，并且英语等级至少为3级，则有可能成为初试合格者。
+但是，具体能否成为初试合格者还需要考虑其他因素，如是否满足特定的科目要求等。建议您查看具体的招生简章或者直接咨询学校以获取更准确的信息。
+如果您指的是总成绩中的某个分数，请提供更多信息以便进行更精确的评估。</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 포함하고 있지만, 수능 4개 영역 등급 평균이 3.88이라는 사실을 잘못 해석하고 있습니다. 또한, 영어 등급 평균이 2.88이라는 정보는 맞지만, 수학 등급이 4.42라는 정보는 원본 텍스트에 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 수학 등급 4.42)를 포함하고 있으며, 이는 원본 텍스트의 내용과 모순됩니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 입학 가능성에 대한 질문에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 특히, 경쟁 비율과 같은 추가 정보는 질문과 직접적인 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 원본 텍스트의 주제와 관련된 정보가 아닌 다른 요소들이 포함되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(예: 수학 등급 4.42)를 포함하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 경쟁 비율과 같은 정보는 질문의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 한국어 사용자에게는 언어 장벽이 있을 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5464801963508158</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（经管学院）的招生人数和竞争比例。
+2. 学生的高考成绩情况。
+根据提供的表格数据：
+- 经营信息学部（经管学院）2024年的招生计划为33人，实际报名人数为95人，竞争比达到10.56:1。
+- 该专业的最低录取标准是国语、数学、英语等科目的等级平均分。
+从表格中的数据来看：
+- 国语：2.88
+- 数学：4.42 
+- 英语：3.20
+您的成绩为4.2，高于上述各科的最低要求。因此，理论上来说，您是有可能成为 最初录取者的。
+但是，最终能否被录取还取决于其他因素，如：
+1. 其他考生的具体分数和排名。
+2. 是否有其他特殊条件或限制（例如某些科目必须达到特定等级）。
+3. 学校的招生政策是否有变化等。
+建议您查看学校官网发布的最新招生信息，并确认是否还有其他具体要求。如果不确定，可以直接联系学校的招生办公室进行咨询。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 경영정보학과의 평균 등급에 대한 정보를 제공하고 있지만, 생성된 응답은 전혀 다른 내용을 다루고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트의 내용과는 다른 주제를 다루고 있으며, 서로 모순되는 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없으며, 주제와도 맞지 않습니다. 원본 텍스트의 질문에 대한 답변이 아닌 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.4993145877240807</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部（一般学生类型）的招生人数和申请人数。
+2. 该专业的竞争率。
+3. 学生的总分标准。
+根据提供的表格数据，我们可以看到以下信息：
+- 经营信息学部 (一般学生类型) 的招生名额为 9 名。
+- 申请人数为 95 名。
+- 竞争率为 10.56。
+- 总分为 326.89。
+根据这些信息，我们可以进行如下分析：
+1. **竞争率**：10.56 表示每 10.56 个申请者中有一个被录取。这表明该专业的竞争非常激烈。
+2. **总分标准**：最低录取分数为 326.89。
+由于您的总分为 5.33，这个分数远远低于表格中的最低录取分数（326.89），因此根据提供的数据来看，您不太可能被 经营信息学部 (一般学生类型) 录取。
+建议您可以查看学校官网或联系招生办公室获取更详细的信息和最新的录取分数线。此外，也可以考虑其他专业或者准备来年再次申请。</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적과 지원자 수, 경쟁률에 대한 정보를 포함하고 있으며, 원본 텍스트의 주요 사실을 잘 반영하고 있습니다. 그러나 최초등록자로 선발될 확률이 낮다는 점은 원본 텍스트에서 명시된 합격 가능성과 다소 상충할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 최초등록자로 선발될 가능성에 대한 해석이 다소 상반됩니다. 원본 텍스트는 합격 가능성이 높다고 언급했으나, 생성된 응답은 그 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 질문에 대한 직접적인 답변을 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 최초등록자 선발 가능성에 대한 해석에서 약간의 차이가 있습니다. 전반적으로 정확하지만, 일부 세부 사항에서 다소의 오해가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 해석에서 다소의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7551680686059171</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(바이오의약공학과, 의생명공학과, 식품공학과)에 대한 정보를 참고하여 답변 드리겠습니다.
+1. **모집인원 및 지원자 수**: 
+   - 바이오응용공학부는 99명 모집입니다.
+   - 지원자는 238명으로, 경쟁률은 약 2.40:1입니다.
+2. **성적 평균 및 분포**:
+   - 성적 평균은 3.82 등급이며, 표준 편차는 0.88입니다.
+   - 이 중 최고 점수는 5등급을 받은 지원자가 139명으로 많은 비중을 차지하고 있습니다.
+3. **성적 기준**:
+   - 성적이 3.33 등급인 경우, 평균보다 약간 낮지만 표준 편차를 고려하면 상대적으로 좋은 성적입니다.
+   - 경쟁률이 높은 만큼, 이 정도 성적만으로는 최초등록자로 선발될 확률은 매우 낮습니다.
+4. **추천사항**:
+   - 서류평가에서 우수한 점수를 받을 수 있도록 준비해야 합니다.
+   - 면접에서도 자신감 있게 대응하고, 전공적합성과 진로계획 등을 잘 설명할 수 있어야 합니다.
+   - 추가적으로 실기나 특별한 경력 등이 있다면 이를 강조하는 것이 도움이 될 수 있습니다.
+결론적으로 성적이 3.33 등급인 경우 바이오응용공학부 최초등록자로 선발될 확률은 매우 낮습니다. 하지만 서류평가와 면접에서 우수한 점수를 받는다면 충원 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 지원 가능성에 대한 언급이 있지만, 구체적인 수치나 데이터에 대한 언급이 부족하여 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 방사선학과의 지원 요건과 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급과 비교할 때 다소 일관성이 떨어지는 부분이 있습니다. 예를 들어, 평균 등급보다 낮은 성적을 가지고 있다고 언급했지만, 추가 가산점에 대한 설명이 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과에 지원하기 위한 여러 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 방사선학과의 지원 요건에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정확한 수치를 반영하지 못하고 있습니다. 또한, 가산점에 대한 정보가 추가되어 혼란을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 종합적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 방사선학과 지원에 대한 적절한 의미를 전달하고 있으며, 전반적으로 맥락에 맞는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어 가독성이 떨어질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5837839328462282</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과에 지원하시려면, 다음과 같은 점들을 고려해야 합니다:
+1. **모집인원**: 방사선학과는 5명을 모집하고 있습니다.
+2. **성적 요건**:
+   - 방사선학과는 수능 위주 전형으로 운영됩니다.
+   - 성적 반영 비율은 국어, 수학, 영어 등급점수, 탐구 등급점수를 합산하여 평균 점수를 산출합니다.
+3. **성적 예상**:
+   - 현재 정시 등급이 4.4라면, 이는 대략적으로 수능 국어와 수학의 표준점수가 높은 수준을 의미합니다.
+   - 방사선학과는 수학(미적분 또는 기하) 응시자에게 추가 가산점을 부여하기 때문에, 수학 성적이 좋다면 유리할 것입니다.
+4. **가산점**:
+   - 수학(미적분 또는 기하) 응시자의 경우, 수학 표준점수의 10%를 가산점으로 받을 수 있습니다.
+   - 이 가산점을 고려하면, 현재 등급만으로도 충분히 경쟁력을 갖추는 것이 가능할 것입니다.
+5. **경쟁률**:
+   - 방사선학과의 지원자는 많은 학생들이 동일한 전형에 지원하기 때문에, 경쟁률이 높을 수 있습니다.
+   - 2024년도 지원자 중에서 성적이 우수한 학생들이 많으므로, 최상위권의 점수를 받는 것이 중요합니다.
+6. **추천**:
+   - 현재 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률이 높아 확실성은 낮을 수 있습니다.
+   - 추가적으로 수학 성적을 향상시키거나, 다른 전형(예: 실기/실적 위주 전형)을 고려해보는 것도 좋은 방법일 수 있습니다.
+결론적으로, 현재의 등급으로 방사선학과에 지원하는 것은 가능하지만, 최상위권의 성적이 필요하며 경쟁률이 높아 확실성을 높이기 위해서는 추가적인 노력이 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 점수와 관련된 정보를 잘못 해석하고 있습니다. 원문에서는 2.66이 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 2.66이 낮은 점수라고 판단하고 있습니다. 이는 사실과 상반되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 2.66이 평균보다 높다고 명시하고 있지만, 생성된 응답에서는 2.66이 낮은 점수라고 주장하고 있습니다. 이러한 모순은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 정시 모집에 대한 정보를 제공하고 있으며, 원문과 관련된 주제를 다루고 있습니다. 그러나 원문에서 제공하는 긍정적인 가능성을 간과하고 부정적인 측면만 강조하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점수에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 약해지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 2.66이 평균보다 높다는 사실을 무시하고, 낮은 점수로 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 두드러지며, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다. 전반적으로 원문과의 조화가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 해석이 포함되어 있습니다. 원문의 긍정적인 메시지를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.6085864634361664</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 방사선학과 정시 모집에 대해 2.66이라는 점수를 가지고는 상당히 낮은 수준으로 판단됩니다.
+방사선학과의 경우, 정시모집에서는 주로 수능 성적을 기반으로 합격자를 선발합니다. 방사선학과의 경우, 모집인원이 제한적이므로 높은 점수를 요구하는 경향이 있습니다.
+2.66이라는 점수는 다음과 같은 문제점을 지니고 있을 수 있습니다:
+1. **저점수**: 대부분의 정시모집에서는 3.0 이상을 기준으로 합격자를 선발합니다. 2.66은 이 기준에 미치지 못하므로 낮은 점수입니다.
+2. **경쟁률**: 방사선학과는 모집인원이 제한적이므로, 낮은 점수로 지원하면 경쟁률이 매우 높을 가능성이 큽니다.
+3. **합격 가능성**: 2.66이라는 점수로는 합격하기 어렵다고 판단됩니다. 대부분의 학생들이 더 높은 점수를 가지고 지원하므로, 낮은 점수로는 선발될 확률이 매우 낮습니다.
+4. **추천서 등 추가 자료**: 2.66이라는 점수로는 합격을 위해서는 추천서나 자기소개서 등의 추가 자료가 필요할 수 있습니다.
+결론적으로, 방사선학과 정시 모집에서 2.66이라는 점수로 지원하는 것은 매우 위험하며, 다른 대안을 고려해야 합니다. 더 높은 점수를 얻거나, 학생부종합전형 등을 통해 지원하는 것이 더 유리할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 3.66이라는 성적이 경쟁력 있는 점수일 것이라고 언급하고 있으며, 이는 원본 텍스트에서 제시된 평균 성적 4.12보다 낮지만 여전히 긍정적인 요소로 작용할 수 있음을 반영하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때, 성적이 평균보다 높다고 단정짓지 않고 여러 요소를 고려해야 한다고 언급한 점에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 성적과 경쟁률에 대한 긍정적인 요소를 언급하고 있습니다. 그러나 "3.66이라는 성적만으로는 확실한 답변을 드리기 어렵습니다"라는 부분은 원본 텍스트의 희망적인 결론과 약간의 불일치를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 성적, 평가 기준, 면접 및 서류 평가 등 다양한 요소를 다루고 있습니다. 이는 질문자의 상황에 직접적으로 관련된 정보입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 정보의 흐름이 매끄럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으나, 성적이 평균보다 높다고 단정짓지 않고 여러 요소를 고려해야 한다는 점에서 약간의 차이가 있습니다. 그러나 전반적으로 정확한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 사실성과 일관성에서 약간의 차이가 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있으며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5672107333680945</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66이라는 GPA는 일반적으로 경쟁력 있는 점수일 것입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다.
+1. **성적 기준**: 농어촌 전형의 경우, 성적이 중요한 요인 중 하나이지만 다른 평가 항목들도 고려됩니다.
+2. **학생부 및 활동**: 학생부 교과성적 외에도 창의적 체험활동, 진로 탐색 활동 등이 중요합니다. 3.66이라는 성적이 좋은 점수이므로 이 부분에서 높은 평가를 받을 가능성도 있습니다.
+3. **면접 및 서류평가**: 면접과 서류 평가는 학생의 전반적인 역량을 종합적으로 판단하기 때문에 중요합니다.
+따라서, 3.66이라는 성적만으로는 확실한 답변을 드리기 어렵습니다. 하지만 다음과 같은 점들을 고려하면 좋은 기회일 수 있습니다:
+- **성적**: 3.66은 높은 점수로 경쟁력을 갖추고 있습니다.
+- **학생부 활동**: 창의적 체험활동, 진로 탐색 활동 등이 잘 반영되어 있다면 이점이 있을 수 있습니다.
+- **면접 및 서류평가**: 면접과 서류 평가에서 좋은 성적을 받는다면 합격 가능성은 높아질 것입니다.
+결론적으로, 3.66이라는 성적이 좋은데다 농어촌 전형의 특성상 다양한 평가 기준이 적용되므로, 최선을 다해 준비한다면 합격 가능성이 있습니다. 하지만 확실한 답변을 위해서는 해당 대학의 정확한 합격기준과 과정을 확인하시고, 면접 및 서류평가에서 좋은 성적을 받는 것이 중요합니다.
+추가적으로, 입학사정관들이 다양한 요소를 종합적으로 평가하기 때문에, 지원자의 전반적인 역량이 잘 반영되어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 여러 요인을 고려하고 있으며, 원문에서 제공된 정보와 대체로 일치합니다. 그러나 "낮은 확률이라는 점은 인정해야 합니다"라는 부분은 원문에서 명시된 합격 가능성에 대한 긍정적인 언급과는 다소 상충할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 합격 가능성과 관련된 정보를 제공하지만, "낮은 확률"이라는 표현은 원문에서의 긍정적인 가능성과 일치하지 않습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하며, 예비 25번의 합격 가능성에 대한 다양한 요인을 설명하고 있습니다. 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 일부 문장 간의 연결이 다소 약할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하며, 예비 25번의 합격 가능성에 대한 다양한 요인을 정확하게 설명하고 있습니다. 그러나 "낮은 확률"이라는 표현은 다소 부정확할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 긍정적인 평가를 받을 수 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, "낮은 확률"이라는 표현이 원문의 긍정적인 뉘앙스와 다소 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5099147856202801</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 나오더라도 결론적으로는 충분히 가능성이 있습니다. 하지만 경쟁률이 매우 높은 것을 고려할 때, 낮은 확률이라는 점은 인정해야 합니다.
+다음과 같은 요인들을 고려해볼 수 있습니다:
+1. **경쟁률**: 주어진 표에서 해당 학과의 지원자 수와 모집 인원을 확인하여 실제 경쟁률을 계산할 수 있습니다. 예를 들어, 37명이 지원했고 9명만 선발한다면 경쟁률은 약 4:1입니다.
+2. **예비후보**: 예비 25번이라는 순위는 실제로는 25번째로 높은 점수를 받았다는 의미입니다. 이는 충분히 좋은 성적을 가지고 있다는 것을 의미합니다.
+3. **결원 발생 가능성**: 모집인원 미달 시 예비후보 순위에 따라 추가 선발이 가능하기 때문에, 결원 발생 시 확률이 높아질 수 있습니다.
+4. **등록 여부 확인**: 최종 합격자 발표 이후 등록을 완료하지 않은 경우, 충원 합격자가 생길 수 있으므로 기회는 남아있습니다.
+5. **결정적 요인**: 면접 성적이 좋거나 기타 특별한 경력이 있다면 이점이 반영될 가능성이 있습니다.
+따라서, 현재 상황에서 확실하게 붙을 수 있다고 말하기는 어렵지만, 낮은 순위를 가지고 있다는 것은 좋은 신호입니다. 등록까지 완료하는 것이 중요하며, 최종 합격자 발표 이후에도 기회가 남아있음을 기억해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 "법경찰행정학부"에 대한 정보를 제공하고 있지만, 원본 텍스트에서는 해당 학부가 존재하지 않는다고 명시되어 있습니다. 따라서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 내용을 포함하고 있으며, 특히 "법경찰행정학부"에 대한 성적 예측이 원본 텍스트의 내용과 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 경찰행정학과의 성적 추정과는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 특히 "법경찰행정학부"에 대한 언급이 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 존재하지 않는 학부에 대한 성적 예측을 하고 있습니다. 이로 인해 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7125324137574081</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부의 정시 모집에 대한 정보를 바탕으로 추측해보겠습니다.
+1. **성적 평균**: 
+   - 최근 몇 년간의 입학정원과 지원자들의 성적 분포를 고려하면, 법경찰행정학부의 경우 대체로 국어, 수학, 영어 등급이 4등급 내외이며, 탐구 과목은 2개 이상 3등급을 받는 것이 안정적인 경쟁력을 갖추는 수준입니다.
+2. **예상 평균 성적**:
+   - 국어: 4등급
+   - 수학(미적분): 4등급
+   - 영어: 4등급
+   - 탐구 과목 2개: 각각 3등급
+3. **표준점수 평균**:
+   - 국어: 약 105-110 점
+   - 수학(미적분): 약 108-112 점
+   - 영어: 약 115-120 점
+   - 탐구 과목 2개: 각각 47-53 점
+4. **총점 예상**:
+   - 국어 + 수학(미적분) + 탐구 2과목 = 약 360-380 점 (표준점수)
+이러한 성적이면 안정적으로 합격할 가능성이 높습니다. 하지만 정확한 예상은 입시 경쟁률, 지원자들의 성적 분포 등 다양한 요인에 따라 변동될 수 있으므로, 최신 정보와 동일 기간의 성적 분포를 참고하는 것이 좋습니다.
+추가적으로, 법경찰행정학부는 경쟁이 치열한 학과 중 하나로, 정시 모집에서는 높은 점수를 받는 것이 중요합니다. 따라서 최소 360점 이상을 목표로 하되, 가능하다면 380점 이상을 추구하는 것이 좋습니다.
+마지막으로, 입학전형의 경우 학생부 등 다른 요인도 고려되기 때문에, 성적 외에도 다양한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과와 아동학과의 관계, 정시 등급 5.33에 대한 합격 가능성에 대한 정보를 제공하고 있으나, 일부 세부사항(예: 모집인원, 전형요소 반영비율 등)은 원본 텍스트에 명시되어 있지 않거나 다소 다르게 해석될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 예를 들어, 수능 최저기준이 없다는 정보는 원본 텍스트에 명시되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 답변으로서 매우 적절합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다. 그러나 일부 정보가 추가되어 있어 전체적인 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 추가된 정보가 원본 텍스트와의 정확한 일치를 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.6197287112869666</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과에 대한 정보를 확인해보겠습니다.
+1. **모집단위와 모집인원**: 보육가정상담학과는 아동학과로 분류되어 있습니다.
+   - 2024학년도 모집인원: 13명
+2. **전형요소 반영비율**:
+   - 학생부교과(출결포함) 100%
+3. **수능 최저기준**: 수능 최저기준은 없습니다.
+4. **등급별 변환점수**:
+   - 등급 5.33은 대략 98점 정도의 표준점수가 됩니다 (참조: [수능 영어영역 등급에 따른 점수] 표).
+5. **학생부 교과성적 반영방법**:
+   - 반영과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목
+   - 진로선택과목 성적반영: A: 1등급 B: 3등급 C:5등급
+6. **합격 가능성**:
+   - 학생부 교과성적이 중요합니다. 등급 5.33은 좋은 점수이지만, 실제 반영되는 석차등급과 성적을 확인해야 합니다.
+   - 수능 영어는 98점 정도로 충분히 높은 점수가 나왔습니다.
+7. **추가 정보**:
+   - 학생부 교과성적이 좋은 경우, 합격 가능성은 높아집니다.
+   - 면접 등 추가 평가 요소도 고려해야 합니다.
+따라서, 등급 5.33의 영어 점수는 충분히 높지만, 전체 학생부 교과성적을 확인하여 최종 판단이 필요합니다. 만약 학생부 교과성적이 좋은 경우, 합격 가능성은 높습니다.
+추가 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "확실한 것은 아니며"라는 표현은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 내용이지만, 약간의 불확실성을 추가하여 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공합니다. 예비 12번에 대한 합격 가능성 언급과 전화 통보에 대한 주의 사항이 원본과 일치합니다. 그러나 "확실한 것은 아니며"라는 문구가 다소 모순적으로 느껴질 수 있어 점수를 4로 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있습니다. 예비 번호와 충원 합격자 발표에 대한 내용이 직접적으로 관련되어 있어 점수를 5로 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 약간의 중복된 정보가 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있습니다. 그러나 "확실한 것은 아니며"라는 표현이 다소 애매하게 느껴질 수 있어 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 전반적으로 잘 수행하고 있습니다. 그러나 약간의 모호함과 중복된 정보로 인해 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7844946082262767</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>3차 충원합격자 발표에서는 예비 순위를 기준으로 결정되므로, 예비 12번을 받은 경우 아직 합격 가능성이 있습니다. 하지만 확실한 것은 아니며, 최종적으로는 합격자 발표일에 홈페이지를 통해 확인해야 합니다.
+주의할 점:
+1. 3차 충원합격자는 전화 통보로만 알림이 오므로 반드시 해당 기간 동안 전화를 받으시기 바랍니다.
+2. 등록금 납부 기한 내에 등록하지 않으면 합격 취소될 수 있으니 주의하셔야 합니다.
+최종 결과는 3차 충원합격자 발표일(2024년 2월 15일~20일)에 입학관리 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대해 언급하고 있지만, 유아교육학과의 평균 성적이 4.18이라는 사실을 명확히 반영하지 않고 있습니다. 또한, 4.75라는 성적이 높은 점수라고 언급했지만, 실제로는 지원하기 어려운 성적이라는 점을 명확히 하지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대해 다소 일관성을 유지하고 있으나, 유아교육학과의 평균 성적과 관련된 정보가 부족하여 일관성이 떨어집니다. 특히, 4.75가 높은 점수라는 언급이 유아교육학과의 평균 성적과 상충할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 질문에 잘 관련되어 있으며, 관련된 정보와 조언을 제공합니다. 그러나, 유아교육학과의 평균 성적에 대한 구체적인 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 유아교육학과의 평균 성적과 관련된 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 정보를 제공하지만, 평균 성적에 대한 정확한 정보가 부족하여 정확성이 떨어집니다. 4.75라는 성적이 유아교육학과에 지원하기에 충분하다고 단정짓는 것은 부정확할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 유아교육학과에 대한 지원 가능성에 대한 의미를 잘 전달하고 있습니다. 그러나 평균 성적에 대한 정보가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.7201375633449847</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 등급 점수로 유아교육학과에 지원하는 것은 상당히 어려울 것으로 예상됩니다.
+1. **성적 평균**: 4.75는 매우 높은 점수입니다. 대부분의 대학에서는 수능 성적이 낮은 학생들을 선발하기보다는 높은 성적을 가진 학생들을 선호합니다.
+2. **유아교육학과 특성**: 유아교육학과는 일반적으로 수능 성적이 낮은 학생들도 고려하는 경쟁력이 있는 전형입니다. 그러나 4.75라는 점수로는 여전히 매우 높은 경쟁률을 맞이할 것입니다.
+3. **모집인원 및 지원자 수**: 유아교육학과의 모집인원이 많지 않지만, 지원자가 많은 경우에도 4.75라는 성적으로 선발될 가능성은 낮습니다.
+4. **추천 전략**:
+   - **학생부와 면접 준비**: 학생부와 면접에서 유아교육에 대한 열정과 적합성을 강조해야 합니다.
+   - **추가 지원 자격**: 특별한 경험이나 활동, 봉사활동 등이 있다면 이를 강조하여 경쟁력을 높일 수 있습니다.
+결론적으로 4.75라는 성적은 유아교육학과에 충분히 좋은 성적이지만, 여전히 매우 높은 경쟁률을 맞이할 것입니다. 따라서 학생부와 면접 준비를 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 모집 전형과 관련된 정보를 제공하고 있으며, 학생부 교과성적 4.16에 대한 긍정적인 평가를 포함하고 있습니다. 그러나 원문에서 제공된 평균 등급(영어 6.33, 수능 7.08)에 대한 언급이 없고, 이와 관련된 구체적인 수치가 부족하여 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 보육가정상담학과의 합격 가능성에 대해 논의하고 있습니다. 그러나 원문에서 제시된 평균 등급과 비교하는 부분이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 정보가 추가적으로 필요하여 완전한 일관성을 제공하지는 않습니다. 예를 들어, 모집인원 및 지원자 수에 대한 언급이 있지만, 이와 관련된 구체적인 정보가 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원문에서 제시된 구체적인 수치와 비교할 때 일부 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 세부 사항이 부족하여 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5577658547116179</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현 아동학과)는 일반학생전형을 통해 모집됩니다. 이 전형은 주로 수능 성적에 크게 의존하는 편입니다.
+현재 귀하의 학생부 교과성적이 4.16 등급인 경우, 이는 매우 좋은 점수이며 대부분의 보육가정상담학과(아동학과) 모집단위에서는 충분히 경쟁력을 갖추고 있을 것입니다.
+하지만 정확한 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. **모집인원 및 지원자 수**: 각 모집단위별로 모집인원과 지원자의 수가 다르므로, 이는 경쟁률을 결정합니다.
+2. **수능 최저기준**: 일부 학과에서는 수능 최저기준이 설정되어 있을 수 있습니다. 만약 해당 전형에 수능 최저기준이 없다면, 학생부 교과성적이 높은 것이 유리합니다.
+3. **전형요소 반영비율**: 이 전형은 주로 수능 성적을 기반으로 하므로, 학생부 교과성적이 4.16이라면 충분히 경쟁력을 갖추고 있을 것입니다.
+현재 정보만으로 판단하면 귀하의 학생부 교과성적이 4.16이므로 보육가정상담학과(아동학과)로 추합까지 생각해볼 만한 수준입니다. 하지만 최종 결정을 내리기 위해서는:
+- 해당 전형의 정확한 모집인원과 지원자 수를 확인해야 합니다.
+- 수능 최저기준이 있는지 없는지를 파악해야 합니다.
+따라서, 동의대학교 입학 홈페이지나 공식 안내 자료를 통해 최신 정보와 정확한 경쟁률을 확인하시고, 추가적인 지원 전략을 세우시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "소프트웨어융합학과는 정시로 지원할 수 없습니다."라는 원문과 상반된 내용을 담고 있습니다. 응답에서는 정시 모집이 가능하다고 언급하고 있으며, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문에서 정시 지원이 불가능하다고 명시했음에도 불구하고, 응답에서는 정시 모집에 대한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주된 질문에 대한 답변이 아닌 잘못된 정보를 제공하고 있습니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다릅니다. 정시 지원이 불가능하다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4224780272351569</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어융합학과는 정시 모집에서 실기/실적 위주 전형으로 운영됩니다. 이전에 제공된 표에서 확인할 수 있듯이, 이 학과는 &lt;나&gt;군 실기/실적(일반학생전형)으로 모집되며, 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 70%
+- 출결: 12%
+- 실기/실적: 18%
+따라서 평균 등급을 계산하기 위해서는 각 영역의 점수를 반영해야 합니다. 
+1. **학생부교과** (70%): 
+   - 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영합니다.
+2. **출결**: 
+   - 출결 점수는 학생부에서 확인할 수 있으며, 결석일수에 따라 점수가 결정됩니다.
+3. **실기/실적** (18%): 
+   - 이 부분은 실제로 수행한 실무 능력을 평가하는 영역으로, 정확한 등급을 제공하기 어렵습니다.
+이 학과의 수능 최저 기준은 표에서 확인할 수 없으므로, 실제 모집에서는 수능 점수도 고려될 것입니다. 
+**평균 등급 예상**: 
+- 일반적으로 소프트웨어융합학과는 경쟁률이 높기 때문에 평균 4등급 이상의 성적을 받아야 합니다.
+- 국어, 수학, 영어 등 주요 과목에서 3등급 이상을 받는 것이 바람직합니다.
+**결론**: 
+소프트웨어융합학과로 정시로 들어갈 수 있지만, 평균 4등급 이상의 성적을 받아야 합니다. 특히 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 면접과 서류 평가의 중요성을 강조하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 구체적인 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 면접과 서류 평가의 중요성을 설명하고 있습니다. 다만, 원문에서 제시된 구체적인 평가 기준이 일부 생략되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 부분에서 정보의 흐름이 다소 매끄럽지 않은 점이 있어 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 학생부 교과성적에 대한 구체적인 언급이 부족하여 정확성 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부 사항의 부족으로 인해 완벽하지 않으므로 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5009119223656933</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특(서류평가)의 중요도**:
+   - 일반적으로, 면접과 서류 평가는 각각 중요한 역할을 합니다.
+   - **면접**: 지원자의 입학 후 학업 능력과 전공 적합성을 평가합니다. 면접에서는 지원자가 자신의 생각을 명확하게 표현하고, 문제 해결 능력을 보여줄 수 있는 기회입니다.
+   - **서류평가 (세특)**: 지원자의 학교생활기록부와 서류를 통해 지원자의 학업역량, 공동체 역량, 전공적합성 등을 평가합니다. 이는 지원자가 실제 학교에서의 성과와 노력에 대한 객관적인 증거를 제공하기 때문에 중요합니다.
+2. **서류 준비**:
+   - **학교생활기록부**: 정확하고 객관적인 내용을 기재해야 합니다.
+   - **창의적 체험활동, 교과학습발달상황, 행동특성 및 종합의견 등**: 이 부분은 지원자의 학업역량과 전공 적합성을 보여주는 중요한 요소입니다. 실제 활동과 경험을 구체적으로 기재해야 합니다.
+   - **기타 서류 (필요한 경우)**: 일부 모집단위에서는 추가로 요구하는 서류가 있을 수 있으므로, 해당 모집단위의 공지사항을 확인해보세요.
+3. **추천 사항**:
+   - **세부적인 경험 기재**: 학교생활기록부와 제출서류에서 구체적이고 세부적인 경험을 기재해야 합니다.
+   - **실제 활동과 노력의 증거**: 실제 참여한 활동과 그 과정, 결과를 구체적으로 기재하여 지원자의 능력을 입증할 수 있도록 하세요.
+   - **교사 평가와 근거 제공**: 교사의 평가와 그 근거를 함께 제출하면 서류평가에서 더 높은 점수를 받을 수 있습니다.
+따라서, 세특 내용과 면접 점수가 모두 중요하며, 각각에 대해 충분히 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 성적에 대한 정보와 관련이 없으며, 표준 변환 점수에 대한 잘못된 해석을 포함하고 있습니다. 원본 텍스트에서 제공된 정보와 일치하지 않으며, 잘못된 결론을 도출하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 서로 다른 정보를 제공하고 있습니다. 원본 텍스트는 4.08의 성적이 최초합격자 평균에 근접하다고 언급하고 있지만, 생성된 응답은 이 성적이 매우 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다. 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 성적에 대한 해석이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.695439899980143</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최초합격자 표를 확인해보겠습니다.
+- **소프트웨어공학부** 모집단위의 경우, 지원 인원이 146명이고, 경쟁률은 4.87입니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 **330.11**이며, 표준 편차는 **9.08**입니다.
+당신의 성적이 4.08이라면, 이 점수는 표준 변환 점수로 환산하면 매우 낮은 수치입니다. 평균이 330.11이고 표준 편차가 9.08인 경우, 4.08은 상당히 낮은 범위에 속합니다.
+따라서, 이 성적만으로는 소프트웨어공학부의 최초합격자로 선발될 가능성은 매우 낮습니다. 
+추가적으로 지원을 고려하려면 다음과 같은 점들을 확인해보시는 것이 좋겠습니다:
+1. 다른 모집단위에서도 지원 가능 여부를 확인하세요.
+2. 추가 가산점이 있는 경우(예: 특기사항 등)를 살펴보세요.
+3. 면접이나 서류평가에서 좋은 평가를 받을 수 있는 준비를 하세요.
+결론적으로, 현재의 성적만으로는 소프트웨어공학부 최초합격자로 선발될 가능성은 매우 낮습니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 수능 성적의 중요성을 강조하고 있지만, 원본 텍스트에서 언급된 "정시 모집에 대한 구체적인 합격 등급 정보는 제공되지 않는다"는 점을 간과하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 수능 성적의 비중과 관련된 정보는 원본 텍스트에서 제공되지 않은 내용입니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집과 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 합격 등급 정보에 대한 언급이 부족합니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적의 중요성을 강조하고 있지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다. 특히, "수능 최저기준 없음"이라는 정보는 원본 텍스트에서 명확히 언급되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성, 일관성, 정확성에서 다소 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 맥락을 완전히 반영하지는 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6014876652844316</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 정시 모집에서는 수능 성적을 주요하게 반영합니다. 특히, 소프트웨어융합학과는 전형요소 중 수능 점수가 큰 비중을 차지하고 있습니다.
+표에서 확인할 수 있는 정보로는:
+1. **전형 유형**: 정시 모집은 "수능 위주" 또는 "실기/실적 위주"로 구분되며, 소프트웨어융합학과는 "수능 위주"에 속합니다.
+2. **전형요소 반영비율**:
+   - 수능: 100%
+따라서, 소프트웨어융합학과의 경우, 수능 성적이 합격 여부를 결정하는 중요한 요인이 됩니다.
+3. **수능 최저기준**: 표에서 확인할 수 있는 정보로는 "수능최저기준 없음"이지만, 이는 특정 모집단위에 대한 정보일 가능성이 있습니다. 일반적으로 동의대학교에서는 정시 모집에서도 수능 점수가 중요한 역할을 합니다.
+따라서, 5등급으로만 지원하는 것은 매우 어렵다고 볼 수 있습니다. 보통 최소 4등급 이상이 필요하며, 경쟁률과 모집인원에 따라 더 높은 등급이 요구될 수도 있습니다.
+결론적으로, 소프트웨어융합학과에서 5등급으로만 지원하는 것은 매우 위험한 선택일 수 있으며, 최소 4등급 이상을 목표로 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.28이라는 점수가 신소재공학과의 평균 등급보다 낮다고 언급하고 있지만, 실제로는 평균 등급보다 높다고 명시되어 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 신소재공학과의 입학 가능성에 대한 두 가지 상반된 주장을 포함하고 있습니다. 처음에는 합격 가능성이 높다고 했으나, 이후에는 입학이 어렵다고 결론짓고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하며, 신소재공학과의 입학 가능성에 대한 분석을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 결론 부분에서의 모순으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 정보는 일부 정확하지만, 신소재공학과의 평균 등급에 대한 잘못된 해석이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 혼합되어 있으며, 일부는 잘 수행되었지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장 구조가 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.6011171951495579</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 확실한 입학은 어려울 것으로 보입니다.
+이유는 다음과 같습니다:
+1. **전형 유형**: 신소재공학과는 일반적으로 수능 위주로 전형을 진행합니다. 
+2. **수능 최저 기준**: 동의대학교의 경우, 대부분의 학과에서 수능 최저 기준이 있습니다. 이 기준은 대략 4.0 이상으로 설정되어 있습니다.
+3. **경쟁률**: 신소재공학과는 인기 학과로, 경쟁률이 높습니다. 평균적으로 지원자들의 점수가 상당히 높습니다.
+4. **전형 요소 반영 비율**: 수능 위주 전형인 경우, 수능 점수의 비중이 매우 높습니다 (일반적으로 100%).
+따라서, 4.28이라는 점수는 최저 기준을 충족하지만, 경쟁률과 다른 지원자들의 높은 점수를 고려하면 입학 확률은 낮다고 볼 수 있습니다.
+**추천 사항:**
+- **추가 지원**: 다른 학교나 학과에 지원하여 보다 안전한 입학을 준비하는 것이 좋습니다.
+- **재수 시도**: 수능 점수가 조금 더 높아질 기회를 찾아보는 것도 방법입니다.
+- **기타 전형**: 실기/실적 위주로 진행되는 전형이나 특별전형 등을 고려해 볼 수 있습니다.
+결론적으로, 4.28이라는 점수만으로는 동의대학교 신소재공학과에 입학하기 어렵다고 판단됩니다. 추가적인 지원을 통해 보다 안전한 입학 경로를 찾는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 점을 반복적으로 강조하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 대한 명확한 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5  
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5  
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6620908953705384</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서 작성은 요구하지 않습니다. 
+주요 특징:
+1. 수능 위주의 평가 방식으로, 자기소개서는 반영되지 않습니다.
+2. 주로 수능 점수와 교과 성적을 기준으로 합격자를 선발합니다.
+3. 일부 모집단위에서는 탐구 영역의 성적이 반영될 수 있습니다.
+따라서 수능(일반학생전형)에 지원하실 때 자기소개서 작성은 필요하지 않습니다. 대신 주요 관심사는 수능 점수와 교과 성적을 잘 준비하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 추가 모집 가능성에 대한 여러 요인을 제시하고 있습니다. 그러나, 원문에서 언급된 특정 평균 등급(4.65, 4.92)과 같은 세부 사항이 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일관되며, 추가 모집에 대한 요인들을 잘 설명하고 있습니다. 다만, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성이 다소 약해진 느낌이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 추가 모집 가능성에 대한 관련 정보를 잘 다루고 있습니다. 원문과의 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 세부 사항이 누락되어 있어 완전한 정확성은 부족합니다. 예를 들어, 평균 등급에 대한 구체적인 수치가 언급되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6195681098210423</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 추가 모집 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집정원과 지원자 수**: 각 학과의 추가 모집 인원이 얼마나 되는지, 그리고 이미 정시에서 지원한 지원자의 점수가 어떻게 분포되어 있는지를 고려해야 합니다.
+2. **성적 평균 및 경쟁률**: 현재까지의 성적이 어느 정도인지, 그리고 이전에 발표된 최종 합격자들의 성적과 비교해볼 필요가 있습니다.
+3. **추가 모집 방식**: 추가 모집은 일반적으로 정원 외 지원자를 대상으로 하는데, 이 경우 경쟁률이 높을 수 있습니다.
+4. **전형별 특성**: 각 전형(예: 학생부종합, 실기/실적 등)의 특성과 평균 점수를 고려해야 합니다.
+5. **최저 합격 기준**: 추가 모집 시에도 최저 합격 기준이 적용될 수 있으므로 이를 확인해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하시거나, 전형별 세부 안내를 참조해보시는 것이 가장 정확한 답변을 얻는 방법일 것입니다. 또한, 학교에서 제공하는 온라인 커뮤니티나 포럼에서도 정보를 얻을 수 있습니다.
+만약 자세한 내용이 필요하다면, 동의대학교 입학처에 직접 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 입학 요건에 대한 정보를 제공하고 있으며, 수능 최저등급에 대한 구체적인 수치를 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보와는 다소 차이가 있어, 완전한 일치를 보이지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 신소재공학과의 평균 등급에 대한 언급이 없고, 다른 과의 정보도 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 입학 요건과 관련된 정보를 제공하고 있어 원본 텍스트와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 입학 요건에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 평균 등급 정보와는 다소 차이가 있어 완전한 정확성을 보이지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 핵심 내용과 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6315112024067412</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집은 수능 위주로 이루어지며, 전형요소 반영비율이 모두 100% 수능을 기준으로 합니다. 그러나 정확한 합격 등급을 예측하기 위해서는 이전 연도의 입학성적 분석이나 대입 전문가의 조언이 필요합니다.
+2023년도 동의대학교 신소재공학과의 경우, 수능 최저등급은 다음과 같습니다:
+- 신소재공학과: 국어 95점 이상, 수학(미적분/기하) 87점 이상, 영어 4등급 이상
+- 고분자나노공학과: 국어 102점 이상, 수학(미적분/기하) 86점 이상, 영어 3등급 이상
+이러한 기준을 참고하면, 대략적인 합격 가능 등급을 예측할 수 있습니다. 하지만 이는 변동될 수 있으므로, 최신 정보를 확인하기 위해서는 동의대학교 입학처 웹사이트나 공식 안내 자료를 참조하시기 바랍니다.
+또한, 정시 모집에서는 수능 성적뿐만 아니라 지원자의 전반적인 학업 역량과 적합성 등을 종합적으로 평가하므로, 단순히 등급만으로 합격 가능성을 판단하기보다는 전반적인 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 부족하고, 447점이 작년보다 낮아질 가능성에 대한 언급이 있지만, 이는 원본 텍스트의 정보와 일치하지 않습니다. 원본 텍스트는 447점이 평균 점수보다 훨씬 높다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 447점이 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 447점이 낮아질 가능성을 제기하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 정보인 평균 점수와 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 고려사항이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 447점이 작년보다 낮아질 가능성에 대한 언급은 사실과 다릅니다. 원본 텍스트는 447점이 평균 점수보다 높다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않으며, 특히 447점에 대한 해석이 원본과 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6381843467520835</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시 학생부교과 전형에서 신소재공학과의 최종 평균 점수가 작년에 비해 1점 정도 높아졌다는 가능성은 있습니다. 하지만 이는 여러 요인에 따라 결정되므로 확실한 것은 아닙니다.
+주요 고려사항:
+1. **입시 경쟁도**: 작년과 올해의 입시 경쟁도가 어떻게 변했는지 여부를 고려해야 합니다. 경쟁이 더 치열해졌다면, 합격선이 상승할 수 있습니다.
+2. **모집인원**: 모집인원이 늘어났거나 줄었을 경우에도 평균 점수가 달라질 수 있습니다.
+3. **지원자 성적 분포**: 작년과 올해 지원자의 성적이 어떻게 분포했는지에 따라 평균 점수가 달라질 수 있습니다.
+4. **교과 성적 요인**: 국어, 수학, 영어 등 주요 과목의 성적이 어떻게 변했는지도 중요합니다.
+5. **학생부 및 면접 평가 결과**: 학생부와 면접 평가 결과도 합격선에 영향을 미칠 수 있습니다.
+따라서 447점으로 환산된 표준점수가 작년보다 약간 낮아졌다면, 최종 평균 점수는 작년보다 높아질 가능성이 있지만 확실한 것은 아닙니다. 정확한 결과를 알기 위해서는 동의대학교에서 공식 발표하는 정보를 확인해야 합니다.
+추가적으로, 동의대학교 입학처 웹사이트나 모집요강을 통해 최신 정보와 예상 점수대 등을 확인하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.3등급의 성적이 4.1~4.2로 변환된다고 언급했으나, 원본 텍스트에서는 4.1~4.2등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 설명하고 있습니다. 따라서, 생성된 응답은 사실과 일치하지 않으며, 합격 가능성을 낮게 평가하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충하는 부분이 있습니다. 원본 텍스트는 4.1~4.2등급대의 성적이 합격 가능성이 높다고 언급했으나, 생성된 응답은 4.3등급이 낮은 가능성을 제시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 성적 산출 방법과 관련된 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 주요 포인트와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 성적 변환에 대한 설명과 합격 가능성에 대한 결론이 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 해석하고 있으며, 4.3등급의 성적이 합격 가능성이 낮다고 잘못된 정보를 제공합니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 잘못된 해석으로 인해 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.6457958018474306</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3등급의 성적이 4.1~4.2 정도로 변환되면, 신소재공학과의 일반학생전형에서는 경쟁률이 매우 높아서 합격 가능성은 낮습니다.
+신소재공학과는 다음과 같은 특징을 가지고 있습니다:
+1. **수능 반영 비율**: 100% 수능 성적을 반영합니다.
+2. **성적 산출 방법**: 국어, 수학(미적분 또는 기하), 영어 등급점수, 탐구 과목 표준점수를 합산하여 점수를 산출합니다.
+신소재공학과의 모집단위별 성적 산출 예시를 보면:
+- **국어(화법과작문 또는 언어와매체)**: 25%
+- **수학(확률과통계 또는 미적분 또는 기하)**: 25%
+- **영어**: 25%
+- **탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합)**: 25%
+이러한 비율로 성적이 변환되면, 수능 성적에서 높은 점수를 얻어야 합니다. 4.3등급의 성적은 상대적으로 낮은 등급으로, 경쟁률이 매우 높은 신소재공학과에서는 합격하기 어렵습니다.
+**추천 조치:**
+1. **다른 전형 시도**: 학생부교과나 학생부종합 등의 다른 전형을 시도해보세요.
+2. **특성화 과정 이수**: 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우, 관련 전형에 지원할 수 있습니다.
+3. **추가 준비**: 성적 향상을 위해 추가 학습이나 사교육을 받는 것을 고려해보세요.
+최종적으로 결정하기 위해서는 동의대학교 입학 홈페이지나 관계부서에 문의하여 최신 정보와 자세한 조언을 구하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급이 평균 4.33으로 잘못 기재되어 있습니다. 원본 텍스트에서는 평균 4.13으로 명시되어 있습니다. 다른 정보는 대체로 정확하지만, 이 오류로 인해 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보와 일치하지만, 영어 등급의 수치가 다르기 때문에 완전한 일관성을 보이지 않습니다. 나머지 정보는 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 정보를 잘 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다. 그러나 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보의 배열이 더 나은 흐름을 위해 조정될 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 영어 등급의 수치 오류로 인해 정확성 점수가 낮아졌습니다. 나머지 정보는 정확합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되지만, 영어 등급의 오류로 인해 점수가 다소 낮아졌습니다. 나머지 요소들은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 수치의 오류로 인해 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7229661320818784</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최종등록자의 성적을 참고하겠습니다. 아래는 해당 학과의 평균 성적입니다:
+- 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합: 415.80
+- 영어 등급: 4.33
+- 수능 4개 영역 등급: 4.98
+이 성적은 최종등록자들의 평균을 나타내는 것이므로, 실제 입학 가능성을 결정하기 위해서는 해당 학과의 모집인원과 지원 인원 등을 고려해야 합니다.
+추가적으로 참고할 점:
+1. 경쟁률: 1.60 (최초합격자 기준)
+2. 모집인원: 15명
+3. 지원 인원: 24명
+이 정보를 바탕으로, 평균적인 성적은 상대적으로 높은 편입니다. 하지만 경쟁률과 모집인원을 고려하면, 조금 더 높은 점수를 받는 것이 유리할 수 있습니다.
+실제 입학 가능성을 확인하려면 동의대학교 공식 홈페이지나 입학처에 문의하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보와 관련된 사실을 잘못 전달하고 있습니다. 원본 텍스트에서 제공된 구체적인 학과와 성적 기준에 대한 정보가 누락되어 있으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 특정 학과의 성적 기준을 명확히 제시하고 있지만, 생성된 응답은 일반적인 질문 형식으로 바뀌어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 정보가 부족하여 관련성이 낮습니다. 원본 텍스트는 특정 성적에 대한 충원 합격 가능성을 다루고 있지만, 생성된 응답은 일반적인 질문으로 바뀌어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (2-5): 2
+   - 생성된 응답은 일관된 흐름이 부족하며, 원본 텍스트의 구조와 논리적 흐름을 따르지 않습니다. 원본 텍스트의 정보가 잘못 해석되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 구체적인 성적 기준과 학과 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 여러 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (2-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 정보 전달이 이루어지지 않았습니다.
+9. Understandability Score (3-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.4630160187271318</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>东义大学的提前批录取分数线因专业和批次不同而有所差异。根据您提供的信息，您的成绩为5.27（假设是GPA或标准化考试分数），但没有具体说明是哪种类型的入学考试以及参考的是哪个专业的分数线。
+为了给出更准确的答案，请提供以下信息：
+1. 您参加的入学考试类型（如：高考、学业水平测试等）。
+2. 申请的专业名称。
+3. 具体的录取标准或往年该专业的大致分数线。
+有了这些具体信息，我可以帮助您判断您的成绩是否有希望被东义大学提前批录取。通常情况下，如果您的分数接近或略高于目标专业的分数线，则有较大机会被录取。但最终结果还需参考当年的具体招生情况和名额分配。建议直接访问东义大学的官方网站查看最新的招生简章和具体要求。
+如果您不确定具体信息，可以访问东义大学官网（https://ipsi.deu.ac.kr/main.do）查询详细资料或联系学校招生办公室获取帮助。</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있다고 언급된 원문과 상반된 내용을 담고 있습니다. 원문에서는 4.2라는 성적이 합격 가능성이 높다고 했으나, 생성된 응답에서는 가능성이 매우 낮다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 4.2가 평균보다 높은 성적이라고 했지만, 생성된 응답은 4.2가 낮다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어공학부에 대한 지원 가능성에 대한 정보를 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 원문에서 제공한 구체적인 데이터와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 떨어져 다소 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공한 사실과 상반된 주장을 하고 있어 정확성이 떨어집니다. 4.2라는 성적이 낮다고 주장하는 것은 원문과의 사실적 불일치를 나타냅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 원문과의 사실적 불일치와 일관성 부족으로 인해 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 상반된 주장은 의미적 일관성을 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5703440470044964</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 성적이 주어진 상황에서 동의대학교 소프트웨어공학부에 지원하는 것은 가능성이 매우 낮습니다.
+이유는 다음과 같습니다:
+1. **소프트웨어공학부 모집인원 및 경쟁률**: 
+   - 소프트웨어공학부는 30명을 모집하며, 지원 인원은 146명으로 경쟁률이 매우 높습니다 (4.87).
+2. **성적 기준**:
+   - 일반적으로 동의대학교의 정시 모집에서는 수능 성적이 중요합니다.
+   - 소프트웨어공학부는 주로 수능 점수를 기반으로 합격자를 선발하므로, 4.2라는 성적은 매우 낮습니다.
+3. **전형 요소**:
+   - 동의대학교의 정시 모집에서는 주로 수능 성적이 큰 비중을 차지합니다.
+   - 교과 성적만으로는 합격 가능성은 매우 낮습니다.
+4. **추천사항**:
+   - 다른 전형 (예: 실기/실적 위주, 학생부종합 등)을 고려해보세요.
+   - 수능 공부를 더 열심히 해서 성적이 향상될 수 있도록 노력하세요.
+   - 추가 지원 자격이 있는 경우 해당 전형을 탐색해보세요.
+결론적으로 4.2라는 성적로 소프트웨어공학부에 정시로 지원하는 것은 매우 어려울 것으로 보입니다. 다른 방법으로 지원을 고려해보는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 점수가 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 성적 산출 방법에 대한 설명이 다소 복잡하고, 예시 성적이 실제와 다를 수 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 성적 산출 방법에 대한 추가적인 설명이 원본 텍스트의 간단한 결론과는 다소 상충하는 느낌을 줍니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 3.92라는 점수에 대한 분석과 화학환경공학부의 모집 요건을 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 성적 계산 부분이 다소 복잡하게 느껴질 수 있어 완전한 일관성에는 미치지 못합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 모집 요건과 관련된 정보를 정확하게 전달하고 있으며, 3.92라는 점수에 대한 해석도 적절합니다. 그러나 성적 산출 방법에 대한 설명이 다소 혼란스러울 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 3.92라는 점수에 대한 적절한 해석을 제공합니다. 다만, 성적 산출 방법에 대한 설명이 다소 복잡하여 의미 전달이 약간 흐려질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 성적 계산 부분이 다소 복잡하게 설명되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.7460904757368968</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 모집에 대해 판단해보겠습니다.
+1. **성적 산출 방법**: 
+   - 화학환경공학부는 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 성적을 산출합니다.
+2. **성적 평균**: 
+   - 주어진 예시 성적 { 104 / 108 / 4등급 / 47 / 59 / }에서 국어, 수학, 영어 등급 점수를 사용하여 산출합니다.
+3. **성적 계산**:
+   - 국어: 104
+   - 수학: 108 (이 중 탐구영역을 선택)
+   - 영어: 5등급 (대략 92점으로 가정)
+   이 경우, 상위 3개 영역의 점수를 합산하여 평균을 구하면 다음과 같습니다:
+   (104 + 108 + 92) ÷ 2 = 204 ÷ 2 = 102
+   하지만 주어진 예시 성적에서 3.92라는 점수가 나오는 것은 국어, 수학, 영어 등급을 더 정확하게 반영한 결과일 가능성이 있습니다.
+4. **화학환경공학부의 모집요건**:
+   - 화학환경공학부(화학공학과, 환경공학과, 응용화학과)는 수능 최저 기준이 없습니다.
+   - 따라서 3.92라는 점수를 가지고도 이 학부의 정시 모집에 지원할 수 있습니다.
+결론: 주어진 성적 3.92는 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 모집에 충분한 점수입니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 점수와 합격 가능성에 대한 언급이 부족합니다. 또한, 모집단위와 전형요소 반영비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 왜곡되거나 추가된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보가 있어 일관성이 떨어집니다. 예를 들어, 모집단위와 전형요소 반영비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 원본의 주제와 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 적절하게 답변하고 있으며, 수능 일반학생전형에 대한 정보도 포함되어 있습니다. 그러나 원본 텍스트의 특정 세부사항을 다루지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스러워서 이해하기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 순차적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨하여 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 특히, 평균 점수와 관련된 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 특히 유창성과 관련성에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 맞춰져 있으며, 의미적으로도 적절합니다. 그러나 일부 추가 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6559630049327959</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 지원하신 경우, 수능 일반학생전형으로 지원이 가능한데요. 
+화학환경공학부는 공과대학에 속해 있으며, 해당 학과의 모집인원 및 전형요소를 확인하면 다음과 같습니다:
+- **모집단위**: 화학공학과 - 교직 (43명)
+- **전형요소 반영비율**:
+  - 수능: 100%
+따라서, 수능 점수만으로 지원이 가능합니다. 
+주요 정보는 다음과 같습니다:
+- **수능 영역별 반영 비율**: 국어(25%), 수학(미적분 또는 기하)(25%), 영어(25%), 탐구(사회탐구 또는 과학탐구 - 2개 과목 합)(25%)
+- **가산점**: 수학(미적분 또는 기하) 응시자는 수학 표준점수의 10% 가산점
+당신이 제공하신 수능 성적 4.25는 국어, 수학, 영어, 탐구 영역 모두 반영되므로 충분히 지원 가능합니다.
+만약 추가로 질문이나 자세한 정보가 필요하시다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.2라는 점수가 합격 가능성이 높다는 점을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 "정확히 합격 가능성을 예측하기는 어렵습니다"라는 문구는 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 경쟁률과 모집 인원에 대한 추가 정보를 제공하면서 원본 텍스트의 핵심 내용을 다소 벗어나는 경향이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 영화학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 문구가 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6241723728121974</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수를 가지고 정확히 합격 가능성을 예측하기는 어렵습니다. 하지만 몇 가지 정보와 참고사항을 제공해 드릴 수 있습니다:
+1. 영화학과의 경쟁률과 모집인원:
+   - 영화학과의 경우, 2024년도에 5명을 모집하며 지원 인원이 많을 것으로 예상됩니다.
+   - 이전 연도와 비교했을 때, 영화학과는 상대적으로 낮은 경쟁률을 보여왔습니다.
+2. 성적 반영 방식:
+   - 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합이 주요 평가 기준입니다.
+   - 4.2라는 점수는 상당히 높은 수준으로, 이전 연도의 최저합격선을 웃돌 가능성이 있습니다.
+3. 동점자 처리 방식:
+   - 동점자가 발생할 경우 면접 성적, 서류 평가 등이 추가로 고려됩니다.
+   - 영화학과는 면접평가가 중요한 역할을 합니다.
+4. 학교별 특성:
+   - 동의대학교는 실기와 면접을 중시하는 경향이 있으므로, 실기 성적도 중요하게 평가될 수 있습니다.
+5. 추세 분석:
+   - 이전 연도의 최저합격선과 비교해보면, 4.2라는 점수는 상당히 높은 편입니다.
+   - 하지만 경쟁률이 높아지면 여전히 낮은 확률일 수 있습니다.
+결론적으로:
+- 4.2라는 점수는 매우 좋은 성적으로, 합격 가능성은 높습니다.
+- 그러나 영화학과의 경쟁률이 높고 모집인원이 적기 때문에, 최종 합격 여부는 확실하지 않습니다.
+- 실기 성적이 좋다면 더욱 유리할 것입니다.
+최종적으로는 입학사정관들의 평가와 면접 성적 등 다양한 요소들이 고려되기 때문에, 정확한 예측은 어렵습니다. 하지만 4.2라는 점수로는 합격 가능성은 높다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 모든 단계가 올바르게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.701921363837997</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文翻译：
+면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+面试流程如下：
+1. 到达候考室
+2. 身份确认
+3. 移动到考场前
+4. 进入考场
+5. 发表个人的申请动机和学业计划
+6. 讨论学业能力、专业匹配性相关的一般问题并进行问答
+7. 其他质询（提交文件的真实性等）
+8. 离场</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
